--- a/log/lqr_steering_speed/example_errors.xlsx
+++ b/log/lqr_steering_speed/example_errors.xlsx
@@ -1031,7 +1031,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>0.04863415136898909</v>
+        <v>0.04863415136898923</v>
       </c>
       <c r="B85">
         <v>-0.01672422763074888</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>0.05047915171853853</v>
+        <v>0.05047915171853859</v>
       </c>
       <c r="B87">
         <v>-0.01378064290547609</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>0.05280820530075885</v>
+        <v>0.05280820530075884</v>
       </c>
       <c r="B92">
         <v>-0.02885442905036761</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>0.05388247989990649</v>
+        <v>0.05388247989990656</v>
       </c>
       <c r="B94">
         <v>-0.02384115205385084</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107">
-        <v>0.05007824529289771</v>
+        <v>0.05007824529289773</v>
       </c>
       <c r="B107">
         <v>-0.03829683118185701</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108">
-        <v>0.04879972514571749</v>
+        <v>0.0487997251457175</v>
       </c>
       <c r="B108">
         <v>-0.04540796076705611</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122">
-        <v>0.04253543224490763</v>
+        <v>0.04253543224490764</v>
       </c>
       <c r="B122">
         <v>-0.02894184247553167</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125">
-        <v>0.04215047737826276</v>
+        <v>0.04215047737826277</v>
       </c>
       <c r="B125">
         <v>-0.02478694386795866</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127">
-        <v>0.04121028193052546</v>
+        <v>0.04121028193052594</v>
       </c>
       <c r="B127">
         <v>-0.03562482960469193</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135">
-        <v>0.04111561689993587</v>
+        <v>0.04111561689993586</v>
       </c>
       <c r="B135">
         <v>-0.0243854018573888</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136">
-        <v>0.04090920185341244</v>
+        <v>0.04090920185341245</v>
       </c>
       <c r="B136">
         <v>-0.03021620423647198</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152">
-        <v>0.03832242566380534</v>
+        <v>0.03832242566380593</v>
       </c>
       <c r="B152">
         <v>-0.02448532045045182</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="153" spans="1:2">
       <c r="A153">
-        <v>0.03838673294196859</v>
+        <v>0.0383867329419686</v>
       </c>
       <c r="B153">
         <v>-0.03175866060734567</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="157" spans="1:2">
       <c r="A157">
-        <v>0.03905367272509319</v>
+        <v>0.0390536727250932</v>
       </c>
       <c r="B157">
         <v>-0.03640977204693341</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="159" spans="1:2">
       <c r="A159">
-        <v>0.03983733688157941</v>
+        <v>0.0398373368815794</v>
       </c>
       <c r="B159">
         <v>-0.02800877300396332</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="160" spans="1:2">
       <c r="A160">
-        <v>0.04061874580892297</v>
+        <v>0.04061874580892281</v>
       </c>
       <c r="B160">
         <v>-0.0325635275166567</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="177" spans="1:2">
       <c r="A177">
-        <v>0.04172918617313059</v>
+        <v>0.0417291861731306</v>
       </c>
       <c r="B177">
         <v>-0.03080627376243816</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="182" spans="1:2">
       <c r="A182">
-        <v>0.04050827029662218</v>
+        <v>0.04050827029662219</v>
       </c>
       <c r="B182">
         <v>-0.04342399448421075</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="184" spans="1:2">
       <c r="A184">
-        <v>0.04048473953163254</v>
+        <v>0.04048473953163253</v>
       </c>
       <c r="B184">
         <v>-0.03647051108534693</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="186" spans="1:2">
       <c r="A186">
-        <v>0.0401746718708524</v>
+        <v>0.04017467187085241</v>
       </c>
       <c r="B186">
         <v>-0.04526890838881803</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187">
-        <v>0.04054592130029494</v>
+        <v>0.04054592130029493</v>
       </c>
       <c r="B187">
         <v>-0.03341541714807894</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="194" spans="1:2">
       <c r="A194">
-        <v>0.04095095835748441</v>
+        <v>0.04095095835748442</v>
       </c>
       <c r="B194">
         <v>-0.03045914065963196</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="213" spans="1:2">
       <c r="A213">
-        <v>0.03674151668973963</v>
+        <v>0.03674151668973962</v>
       </c>
       <c r="B213">
         <v>-0.03206944788824861</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="214" spans="1:2">
       <c r="A214">
-        <v>0.03648104023796175</v>
+        <v>0.03648104023796176</v>
       </c>
       <c r="B214">
         <v>-0.02253377634250553</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="225" spans="1:2">
       <c r="A225">
-        <v>0.03613749632044633</v>
+        <v>0.03613749632044632</v>
       </c>
       <c r="B225">
         <v>-0.02608115365461039</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="226" spans="1:2">
       <c r="A226">
-        <v>0.03616490715346121</v>
+        <v>0.03616490715346122</v>
       </c>
       <c r="B226">
         <v>-0.02907163830717874</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="337" spans="1:2">
       <c r="A337">
-        <v>0.008779952583461547</v>
+        <v>0.008779952583461545</v>
       </c>
       <c r="B337">
         <v>-0.01510018053654294</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="338" spans="1:2">
       <c r="A338">
-        <v>0.007856572125889388</v>
+        <v>0.00785657212588939</v>
       </c>
       <c r="B338">
         <v>-0.01517011839405491</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="344" spans="1:2">
       <c r="A344">
-        <v>0.006949632565782332</v>
+        <v>0.006949632565782333</v>
       </c>
       <c r="B344">
         <v>-0.01169721332248441</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="347" spans="1:2">
       <c r="A347">
-        <v>0.008680193838191266</v>
+        <v>0.008680193838191264</v>
       </c>
       <c r="B347">
         <v>-0.004779408816035779</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="348" spans="1:2">
       <c r="A348">
-        <v>0.008921665485665468</v>
+        <v>0.00892166548566547</v>
       </c>
       <c r="B348">
         <v>-0.002641780794197413</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="349" spans="1:2">
       <c r="A349">
-        <v>0.009113791901669043</v>
+        <v>0.009113791901669045</v>
       </c>
       <c r="B349">
         <v>-0.002041627427838755</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="351" spans="1:2">
       <c r="A351">
-        <v>0.008814989537216135</v>
+        <v>0.008814989537216137</v>
       </c>
       <c r="B351">
         <v>-0.001564166819021384</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="373" spans="1:2">
       <c r="A373">
-        <v>0.004257404694259679</v>
+        <v>0.00425740469425968</v>
       </c>
       <c r="B373">
         <v>0.005659911022009023</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="374" spans="1:2">
       <c r="A374">
-        <v>0.004308132403517162</v>
+        <v>0.004308132403517163</v>
       </c>
       <c r="B374">
         <v>0.005942257251051242</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="378" spans="1:2">
       <c r="A378">
-        <v>0.002576706433916302</v>
+        <v>0.002576706433916301</v>
       </c>
       <c r="B378">
         <v>0.00426703876892276</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="405" spans="1:2">
       <c r="A405">
-        <v>-0.01409229845413354</v>
+        <v>-0.01409229845413353</v>
       </c>
       <c r="B405">
         <v>0.008336616334796876</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="422" spans="1:2">
       <c r="A422">
-        <v>-0.0154272865385689</v>
+        <v>-0.01542728653856889</v>
       </c>
       <c r="B422">
         <v>0.02166658327326232</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="442" spans="1:2">
       <c r="A442">
-        <v>-0.02672957581212525</v>
+        <v>-0.02672957581212524</v>
       </c>
       <c r="B442">
         <v>-5.276840761547774E-05</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="447" spans="1:2">
       <c r="A447">
-        <v>-0.02823763042161763</v>
+        <v>-0.02823763042161762</v>
       </c>
       <c r="B447">
         <v>0.006879405349241807</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="449" spans="1:2">
       <c r="A449">
-        <v>-0.0292849378643771</v>
+        <v>-0.02928493786437709</v>
       </c>
       <c r="B449">
         <v>0.00752566386155884</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="473" spans="1:2">
       <c r="A473">
-        <v>-0.04536863863231904</v>
+        <v>-0.04536863863231905</v>
       </c>
       <c r="B473">
         <v>0.02756242899774941</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="474" spans="1:2">
       <c r="A474">
-        <v>-0.04596297690358067</v>
+        <v>-0.04596297690358068</v>
       </c>
       <c r="B474">
         <v>0.02185703762699642</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="476" spans="1:2">
       <c r="A476">
-        <v>-0.04624933125795722</v>
+        <v>-0.04624933125795721</v>
       </c>
       <c r="B476">
         <v>0.02244977269827331</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="478" spans="1:2">
       <c r="A478">
-        <v>-0.04759399673305604</v>
+        <v>-0.04759399673305603</v>
       </c>
       <c r="B478">
         <v>0.03198020009926372</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="484" spans="1:2">
       <c r="A484">
-        <v>-0.05038886821538924</v>
+        <v>-0.05038886821538923</v>
       </c>
       <c r="B484">
         <v>0.03024714313757926</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="492" spans="1:2">
       <c r="A492">
-        <v>-0.05055971997290649</v>
+        <v>-0.05055971997290648</v>
       </c>
       <c r="B492">
         <v>0.04398471157467565</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="494" spans="1:2">
       <c r="A494">
-        <v>-0.0491928611594549</v>
+        <v>-0.04919286115945489</v>
       </c>
       <c r="B494">
         <v>0.04673146324557642</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="495" spans="1:2">
       <c r="A495">
-        <v>-0.04888903516180979</v>
+        <v>-0.0488890351618098</v>
       </c>
       <c r="B495">
         <v>0.05192124911916984</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="496" spans="1:2">
       <c r="A496">
-        <v>-0.04824526987898413</v>
+        <v>-0.04824526987898412</v>
       </c>
       <c r="B496">
         <v>0.05693549518717012</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="510" spans="1:2">
       <c r="A510">
-        <v>-0.04494856634527002</v>
+        <v>-0.04494856634527001</v>
       </c>
       <c r="B510">
         <v>0.04596850734909719</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="522" spans="1:2">
       <c r="A522">
-        <v>-0.03729228141502482</v>
+        <v>-0.03729228141502481</v>
       </c>
       <c r="B522">
         <v>0.03815226386175041</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="532" spans="1:2">
       <c r="A532">
-        <v>-0.02909991678280904</v>
+        <v>-0.02909991678280905</v>
       </c>
       <c r="B532">
         <v>0.03349778954333216</v>
@@ -4695,7 +4695,7 @@
     </row>
     <row r="543" spans="1:2">
       <c r="A543">
-        <v>-0.02643570259396313</v>
+        <v>-0.02643570259396314</v>
       </c>
       <c r="B543">
         <v>0.01861374982462927</v>
@@ -4775,7 +4775,7 @@
     </row>
     <row r="553" spans="1:2">
       <c r="A553">
-        <v>-0.01600773917177298</v>
+        <v>-0.01600773917177299</v>
       </c>
       <c r="B553">
         <v>0.02776716812700064</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="557" spans="1:2">
       <c r="A557">
-        <v>-0.01507345340305257</v>
+        <v>-0.01507345340304988</v>
       </c>
       <c r="B557">
         <v>0.02091086193006841</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="558" spans="1:2">
       <c r="A558">
-        <v>-0.01524263086266815</v>
+        <v>-0.01524263086266814</v>
       </c>
       <c r="B558">
         <v>0.01886346642278536</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="561" spans="1:2">
       <c r="A561">
-        <v>-0.0160217932523713</v>
+        <v>-0.01602179325236901</v>
       </c>
       <c r="B561">
         <v>0.01090247676776945</v>
@@ -4919,7 +4919,7 @@
     </row>
     <row r="571" spans="1:2">
       <c r="A571">
-        <v>-0.006763375436296667</v>
+        <v>-0.006763375436296668</v>
       </c>
       <c r="B571">
         <v>0.01673609145248411</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="579" spans="1:2">
       <c r="A579">
-        <v>-0.000916038729884303</v>
+        <v>-0.0009160387298843029</v>
       </c>
       <c r="B579">
         <v>0.01431931031205202</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="580" spans="1:2">
       <c r="A580">
-        <v>-0.0006199518297493806</v>
+        <v>-0.0006199518297493805</v>
       </c>
       <c r="B580">
         <v>0.01190949729579405</v>
@@ -5039,7 +5039,7 @@
     </row>
     <row r="586" spans="1:2">
       <c r="A586">
-        <v>0.0006143717160462508</v>
+        <v>0.0006143717160462507</v>
       </c>
       <c r="B586">
         <v>-0.0002923411355073569</v>
@@ -5063,7 +5063,7 @@
     </row>
     <row r="589" spans="1:2">
       <c r="A589">
-        <v>0.0009339499814505756</v>
+        <v>0.0009339499814505755</v>
       </c>
       <c r="B589">
         <v>-0.003637306750674529</v>
@@ -5079,7 +5079,7 @@
     </row>
     <row r="591" spans="1:2">
       <c r="A591">
-        <v>0.0009681739846181851</v>
+        <v>0.000968173984618185</v>
       </c>
       <c r="B591">
         <v>-0.009426278938870603</v>
@@ -5271,7 +5271,7 @@
     </row>
     <row r="615" spans="1:2">
       <c r="A615">
-        <v>0.01997646382455032</v>
+        <v>0.01997646382455031</v>
       </c>
       <c r="B615">
         <v>-0.005158928238961025</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="620" spans="1:2">
       <c r="A620">
-        <v>0.02519828594463142</v>
+        <v>0.02519828594463141</v>
       </c>
       <c r="B620">
         <v>-0.005122348947167676</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="630" spans="1:2">
       <c r="A630">
-        <v>0.0303274019307929</v>
+        <v>0.03032740193079291</v>
       </c>
       <c r="B630">
         <v>-0.01923237122656341</v>
@@ -5399,7 +5399,7 @@
     </row>
     <row r="631" spans="1:2">
       <c r="A631">
-        <v>0.03124556709713421</v>
+        <v>0.0312455670971342</v>
       </c>
       <c r="B631">
         <v>-0.02250309855191057</v>
@@ -5447,7 +5447,7 @@
     </row>
     <row r="637" spans="1:2">
       <c r="A637">
-        <v>0.03690833459017252</v>
+        <v>0.03690833459016948</v>
       </c>
       <c r="B637">
         <v>-0.018223566162614</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="647" spans="1:2">
       <c r="A647">
-        <v>0.04434953641354121</v>
+        <v>0.04434953641354122</v>
       </c>
       <c r="B647">
         <v>-0.02304856088278617</v>
@@ -5551,7 +5551,7 @@
     </row>
     <row r="650" spans="1:2">
       <c r="A650">
-        <v>0.04599470573114782</v>
+        <v>0.04599470573114783</v>
       </c>
       <c r="B650">
         <v>-0.02829429685018248</v>
@@ -5615,7 +5615,7 @@
     </row>
     <row r="658" spans="1:2">
       <c r="A658">
-        <v>0.05209885030357452</v>
+        <v>0.05209885030357451</v>
       </c>
       <c r="B658">
         <v>-0.03476746598671143</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="660" spans="1:2">
       <c r="A660">
-        <v>0.05336302650201008</v>
+        <v>0.05336302650201009</v>
       </c>
       <c r="B660">
         <v>-0.03402056744315995</v>
@@ -5807,7 +5807,7 @@
     </row>
     <row r="682" spans="1:2">
       <c r="A682">
-        <v>0.06638347944416864</v>
+        <v>0.06638347944416863</v>
       </c>
       <c r="B682">
         <v>-0.04887779093443889</v>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="683" spans="1:2">
       <c r="A683">
-        <v>0.06657499309942576</v>
+        <v>0.06657499309942574</v>
       </c>
       <c r="B683">
         <v>-0.05694986251968981</v>
@@ -5895,7 +5895,7 @@
     </row>
     <row r="693" spans="1:2">
       <c r="A693">
-        <v>0.07829345048961753</v>
+        <v>0.07829345048961751</v>
       </c>
       <c r="B693">
         <v>-0.04629177225845638</v>
@@ -6039,7 +6039,7 @@
     </row>
     <row r="711" spans="1:2">
       <c r="A711">
-        <v>0.08724152273624486</v>
+        <v>0.08724152273624484</v>
       </c>
       <c r="B711">
         <v>-0.0740872127007659</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="724" spans="1:2">
       <c r="A724">
-        <v>0.07950896513674321</v>
+        <v>0.0795089651367432</v>
       </c>
       <c r="B724">
         <v>-0.1144979339368475</v>
@@ -6167,7 +6167,7 @@
     </row>
     <row r="727" spans="1:2">
       <c r="A727">
-        <v>0.0791210790792458</v>
+        <v>0.07912107907924582</v>
       </c>
       <c r="B727">
         <v>-0.1162693220171529</v>
@@ -6191,7 +6191,7 @@
     </row>
     <row r="730" spans="1:2">
       <c r="A730">
-        <v>0.08216367897311652</v>
+        <v>0.08216367897311651</v>
       </c>
       <c r="B730">
         <v>-0.08802302108230808</v>
@@ -6255,7 +6255,7 @@
     </row>
     <row r="738" spans="1:2">
       <c r="A738">
-        <v>0.08907983551113696</v>
+        <v>0.08907983551113695</v>
       </c>
       <c r="B738">
         <v>-0.06179085054495692</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="739" spans="1:2">
       <c r="A739">
-        <v>0.08926090435971037</v>
+        <v>0.08926090435971039</v>
       </c>
       <c r="B739">
         <v>-0.06852858043783971</v>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="743" spans="1:2">
       <c r="A743">
-        <v>0.08566443966828384</v>
+        <v>0.08566443966828385</v>
       </c>
       <c r="B743">
         <v>-0.06367507150594021</v>
@@ -6351,7 +6351,7 @@
     </row>
     <row r="750" spans="1:2">
       <c r="A750">
-        <v>0.07570924669731158</v>
+        <v>0.07570924669731156</v>
       </c>
       <c r="B750">
         <v>-0.09215942303441338</v>
@@ -6359,7 +6359,7 @@
     </row>
     <row r="751" spans="1:2">
       <c r="A751">
-        <v>0.0744306790096313</v>
+        <v>0.07443067900963128</v>
       </c>
       <c r="B751">
         <v>-0.09921655460914813</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="756" spans="1:2">
       <c r="A756">
-        <v>0.06918694214489216</v>
+        <v>0.06918694214489214</v>
       </c>
       <c r="B756">
         <v>-0.0965010766481611</v>
@@ -6407,7 +6407,7 @@
     </row>
     <row r="757" spans="1:2">
       <c r="A757">
-        <v>0.06847140586406975</v>
+        <v>0.06847140586406976</v>
       </c>
       <c r="B757">
         <v>-0.0833701739798407</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="768" spans="1:2">
       <c r="A768">
-        <v>0.06253046847892096</v>
+        <v>0.06253046847892095</v>
       </c>
       <c r="B768">
         <v>-0.06044342074459719</v>
@@ -6519,7 +6519,7 @@
     </row>
     <row r="771" spans="1:2">
       <c r="A771">
-        <v>0.05914960494368061</v>
+        <v>0.05914960494368062</v>
       </c>
       <c r="B771">
         <v>-0.06112229755419785</v>
@@ -6535,7 +6535,7 @@
     </row>
     <row r="773" spans="1:2">
       <c r="A773">
-        <v>0.05748513355685854</v>
+        <v>0.05748513355685855</v>
       </c>
       <c r="B773">
         <v>-0.07156674887772541</v>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="780" spans="1:2">
       <c r="A780">
-        <v>0.05345251849153035</v>
+        <v>0.05345251849153036</v>
       </c>
       <c r="B780">
         <v>-0.05434246056477532</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="784" spans="1:2">
       <c r="A784">
-        <v>0.04996823988154706</v>
+        <v>0.04996823988154707</v>
       </c>
       <c r="B784">
         <v>-0.06104646416181359</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="791" spans="1:2">
       <c r="A791">
-        <v>0.05024502435612094</v>
+        <v>0.05024502435612093</v>
       </c>
       <c r="B791">
         <v>-0.03567303664968113</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="792" spans="1:2">
       <c r="A792">
-        <v>0.05102423587824506</v>
+        <v>0.05102423587824507</v>
       </c>
       <c r="B792">
         <v>-0.04109391309318289</v>
@@ -6743,7 +6743,7 @@
     </row>
     <row r="799" spans="1:2">
       <c r="A799">
-        <v>0.05220676046200368</v>
+        <v>0.05220676046200367</v>
       </c>
       <c r="B799">
         <v>-0.04722284666639753</v>
@@ -6767,7 +6767,7 @@
     </row>
     <row r="802" spans="1:2">
       <c r="A802">
-        <v>0.05269495178743401</v>
+        <v>0.052694951787434</v>
       </c>
       <c r="B802">
         <v>-0.04994968914015541</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="812" spans="1:2">
       <c r="A812">
-        <v>0.05527969888601658</v>
+        <v>0.05527969888601659</v>
       </c>
       <c r="B812">
         <v>-0.04309541648969661</v>
@@ -6871,7 +6871,7 @@
     </row>
     <row r="815" spans="1:2">
       <c r="A815">
-        <v>0.05718313694997944</v>
+        <v>0.05718313694997943</v>
       </c>
       <c r="B815">
         <v>-0.04312526732702349</v>
@@ -6927,7 +6927,7 @@
     </row>
     <row r="822" spans="1:2">
       <c r="A822">
-        <v>0.06197195697611463</v>
+        <v>0.06197195697611464</v>
       </c>
       <c r="B822">
         <v>-0.05311881919622374</v>
@@ -6951,7 +6951,7 @@
     </row>
     <row r="825" spans="1:2">
       <c r="A825">
-        <v>0.06481698210766593</v>
+        <v>0.06481698210766591</v>
       </c>
       <c r="B825">
         <v>-0.0509124646568524</v>
@@ -6983,7 +6983,7 @@
     </row>
     <row r="829" spans="1:2">
       <c r="A829">
-        <v>0.06942494580278999</v>
+        <v>0.06942494580279</v>
       </c>
       <c r="B829">
         <v>-0.05740380319112148</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="832" spans="1:2">
       <c r="A832">
-        <v>0.07395798825143635</v>
+        <v>0.07395798825143633</v>
       </c>
       <c r="B832">
         <v>-0.05282998954719531</v>
@@ -7111,7 +7111,7 @@
     </row>
     <row r="845" spans="1:2">
       <c r="A845">
-        <v>0.08190105787259871</v>
+        <v>0.08190105787259873</v>
       </c>
       <c r="B845">
         <v>-0.07587473354532825</v>
@@ -7175,7 +7175,7 @@
     </row>
     <row r="853" spans="1:2">
       <c r="A853">
-        <v>0.08415310818973545</v>
+        <v>0.08415310818973544</v>
       </c>
       <c r="B853">
         <v>-0.06422832032433412</v>
@@ -7695,7 +7695,7 @@
     </row>
     <row r="918" spans="1:2">
       <c r="A918">
-        <v>0.05419816460546158</v>
+        <v>0.05419816460546157</v>
       </c>
       <c r="B918">
         <v>-0.0564621896028612</v>
@@ -7703,7 +7703,7 @@
     </row>
     <row r="919" spans="1:2">
       <c r="A919">
-        <v>0.05318901972714152</v>
+        <v>0.05318901972714151</v>
       </c>
       <c r="B919">
         <v>-0.05980680619391876</v>
@@ -7815,7 +7815,7 @@
     </row>
     <row r="933" spans="1:2">
       <c r="A933">
-        <v>0.04111083071156384</v>
+        <v>0.04111083071156383</v>
       </c>
       <c r="B933">
         <v>-0.03632603654122946</v>
@@ -7935,7 +7935,7 @@
     </row>
     <row r="948" spans="1:2">
       <c r="A948">
-        <v>0.0240514468703216</v>
+        <v>0.02405144687032159</v>
       </c>
       <c r="B948">
         <v>-0.03347695200223555</v>
@@ -7951,7 +7951,7 @@
     </row>
     <row r="950" spans="1:2">
       <c r="A950">
-        <v>0.02125759478668072</v>
+        <v>0.02125759478668071</v>
       </c>
       <c r="B950">
         <v>-0.03686103198298163</v>
@@ -8015,7 +8015,7 @@
     </row>
     <row r="958" spans="1:2">
       <c r="A958">
-        <v>0.01107842830215021</v>
+        <v>0.0110784283021502</v>
       </c>
       <c r="B958">
         <v>-0.03431777754374288</v>
@@ -8055,7 +8055,7 @@
     </row>
     <row r="963" spans="1:2">
       <c r="A963">
-        <v>0.006496682166884366</v>
+        <v>0.006496682166884367</v>
       </c>
       <c r="B963">
         <v>-0.02621697975780357</v>
@@ -8383,7 +8383,7 @@
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004">
-        <v>-0.02870912753594045</v>
+        <v>-0.02870912753594044</v>
       </c>
       <c r="B1004">
         <v>0.02400150096734954</v>
@@ -8815,7 +8815,7 @@
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058">
-        <v>-0.07180408089712645</v>
+        <v>-0.07180408089712643</v>
       </c>
       <c r="B1058">
         <v>0.01325243247696051</v>
@@ -8919,7 +8919,7 @@
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071">
-        <v>-0.07025000869120732</v>
+        <v>-0.07025000869120733</v>
       </c>
       <c r="B1071">
         <v>0.08287028300341204</v>
@@ -9071,7 +9071,7 @@
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090">
-        <v>-0.05930215489809773</v>
+        <v>-0.05930215489809774</v>
       </c>
       <c r="B1090">
         <v>0.05518219827330606</v>
@@ -9079,7 +9079,7 @@
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091">
-        <v>-0.05828010967075567</v>
+        <v>-0.05828010967075566</v>
       </c>
       <c r="B1091">
         <v>0.06473895933206864</v>
@@ -9135,7 +9135,7 @@
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098">
-        <v>-0.04869682124476089</v>
+        <v>-0.04869682124476088</v>
       </c>
       <c r="B1098">
         <v>0.05975705521541785</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116">
-        <v>-0.02874539162884521</v>
+        <v>-0.02874539162884522</v>
       </c>
       <c r="B1116">
         <v>0.03835527672379202</v>
@@ -9439,7 +9439,7 @@
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136">
-        <v>-0.005150038556439829</v>
+        <v>-0.005150038556439828</v>
       </c>
       <c r="B1136">
         <v>0.03072137791989693</v>
@@ -9519,7 +9519,7 @@
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146">
-        <v>0.007394306529967394</v>
+        <v>0.007394306529968139</v>
       </c>
       <c r="B1146">
         <v>0.02664899452171987</v>
@@ -9639,7 +9639,7 @@
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161">
-        <v>0.03386479722132091</v>
+        <v>0.03386479722132092</v>
       </c>
       <c r="B1161">
         <v>0.03760389852754376</v>
@@ -9775,7 +9775,7 @@
     </row>
     <row r="1178" spans="1:2">
       <c r="A1178">
-        <v>0.05613966330214569</v>
+        <v>0.0561396633021457</v>
       </c>
       <c r="B1178">
         <v>-0.01920943614128223</v>
@@ -9815,7 +9815,7 @@
     </row>
     <row r="1183" spans="1:2">
       <c r="A1183">
-        <v>0.06010401085546263</v>
+        <v>0.06010401085546264</v>
       </c>
       <c r="B1183">
         <v>-0.04630593075740475</v>
@@ -9823,7 +9823,7 @@
     </row>
     <row r="1184" spans="1:2">
       <c r="A1184">
-        <v>0.05993951148320643</v>
+        <v>0.05993951148320644</v>
       </c>
       <c r="B1184">
         <v>-0.05744343659485107</v>
@@ -9903,7 +9903,7 @@
     </row>
     <row r="1194" spans="1:2">
       <c r="A1194">
-        <v>0.05815653832111087</v>
+        <v>0.05815653832111086</v>
       </c>
       <c r="B1194">
         <v>-0.04945885286625717</v>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="1196" spans="1:2">
       <c r="A1196">
-        <v>0.05648479806316339</v>
+        <v>0.05648479806316299</v>
       </c>
       <c r="B1196">
         <v>-0.06994513456997264</v>
@@ -10679,7 +10679,7 @@
     </row>
     <row r="1291" spans="1:2">
       <c r="A1291">
-        <v>0.03307292921187225</v>
+        <v>0.03307292921187224</v>
       </c>
       <c r="B1291">
         <v>-0.02708554743932723</v>
@@ -11055,7 +11055,7 @@
     </row>
     <row r="1338" spans="1:2">
       <c r="A1338">
-        <v>0.02820994320695668</v>
+        <v>0.02820994320695667</v>
       </c>
       <c r="B1338">
         <v>-0.02906106011186083</v>
@@ -11199,7 +11199,7 @@
     </row>
     <row r="1356" spans="1:2">
       <c r="A1356">
-        <v>0.0293886064286154</v>
+        <v>0.02938860642861539</v>
       </c>
       <c r="B1356">
         <v>-0.01589418413476729</v>
@@ -11511,7 +11511,7 @@
     </row>
     <row r="1395" spans="1:2">
       <c r="A1395">
-        <v>0.02324775799776611</v>
+        <v>0.02324775799776612</v>
       </c>
       <c r="B1395">
         <v>-0.01117370378351534</v>
@@ -11623,7 +11623,7 @@
     </row>
     <row r="1409" spans="1:2">
       <c r="A1409">
-        <v>0.02755331767507761</v>
+        <v>0.02755331767507762</v>
       </c>
       <c r="B1409">
         <v>-0.01277159294199848</v>
@@ -11759,7 +11759,7 @@
     </row>
     <row r="1426" spans="1:2">
       <c r="A1426">
-        <v>0.04056716510405818</v>
+        <v>0.04056716510405817</v>
       </c>
       <c r="B1426">
         <v>-0.01596274853305424</v>
@@ -11927,7 +11927,7 @@
     </row>
     <row r="1447" spans="1:2">
       <c r="A1447">
-        <v>0.05706731467970622</v>
+        <v>0.05706731467970621</v>
       </c>
       <c r="B1447">
         <v>-0.05027430512026232</v>
@@ -11975,7 +11975,7 @@
     </row>
     <row r="1453" spans="1:2">
       <c r="A1453">
-        <v>0.06185448858220956</v>
+        <v>0.06185448858220955</v>
       </c>
       <c r="B1453">
         <v>-0.0571457311608583</v>
@@ -11991,7 +11991,7 @@
     </row>
     <row r="1455" spans="1:2">
       <c r="A1455">
-        <v>0.06291777723129469</v>
+        <v>0.0629177772312947</v>
       </c>
       <c r="B1455">
         <v>-0.05337646032347987</v>
@@ -12087,7 +12087,7 @@
     </row>
     <row r="1467" spans="1:2">
       <c r="A1467">
-        <v>0.06892124957761267</v>
+        <v>0.06892124957761266</v>
       </c>
       <c r="B1467">
         <v>-0.06417970171639542</v>
@@ -12111,7 +12111,7 @@
     </row>
     <row r="1470" spans="1:2">
       <c r="A1470">
-        <v>0.07277662010070043</v>
+        <v>0.07277662010070045</v>
       </c>
       <c r="B1470">
         <v>-0.05997595375486853</v>
@@ -12167,7 +12167,7 @@
     </row>
     <row r="1477" spans="1:2">
       <c r="A1477">
-        <v>0.0771962175066592</v>
+        <v>0.07719621750665921</v>
       </c>
       <c r="B1477">
         <v>-0.04320943170415248</v>
@@ -12175,7 +12175,7 @@
     </row>
     <row r="1478" spans="1:2">
       <c r="A1478">
-        <v>0.07745026172460992</v>
+        <v>0.07745026172460993</v>
       </c>
       <c r="B1478">
         <v>-0.0557391991377223</v>
@@ -12183,7 +12183,7 @@
     </row>
     <row r="1479" spans="1:2">
       <c r="A1479">
-        <v>0.0770210795557352</v>
+        <v>0.07702107955573519</v>
       </c>
       <c r="B1479">
         <v>-0.06820723090093495</v>
@@ -12207,7 +12207,7 @@
     </row>
     <row r="1482" spans="1:2">
       <c r="A1482">
-        <v>0.0785955716817357</v>
+        <v>0.07859557168173571</v>
       </c>
       <c r="B1482">
         <v>-0.07047041036735635</v>
@@ -12239,7 +12239,7 @@
     </row>
     <row r="1486" spans="1:2">
       <c r="A1486">
-        <v>0.08099824123877297</v>
+        <v>0.08099824123877299</v>
       </c>
       <c r="B1486">
         <v>-0.0502114714771027</v>
@@ -12279,7 +12279,7 @@
     </row>
     <row r="1491" spans="1:2">
       <c r="A1491">
-        <v>0.08265809020426877</v>
+        <v>0.08265809020426876</v>
       </c>
       <c r="B1491">
         <v>-0.07683314590161139</v>
@@ -12303,7 +12303,7 @@
     </row>
     <row r="1494" spans="1:2">
       <c r="A1494">
-        <v>0.08435089980963217</v>
+        <v>0.08435089980963216</v>
       </c>
       <c r="B1494">
         <v>-0.07719747793635889</v>
@@ -12311,7 +12311,7 @@
     </row>
     <row r="1495" spans="1:2">
       <c r="A1495">
-        <v>0.08478501665686974</v>
+        <v>0.08478501665686976</v>
       </c>
       <c r="B1495">
         <v>-0.05301551025160212</v>
@@ -12327,7 +12327,7 @@
     </row>
     <row r="1497" spans="1:2">
       <c r="A1497">
-        <v>0.08516807574747327</v>
+        <v>0.08516807574747329</v>
       </c>
       <c r="B1497">
         <v>-0.07917504825647725</v>
@@ -12335,7 +12335,7 @@
     </row>
     <row r="1498" spans="1:2">
       <c r="A1498">
-        <v>0.08582800808666817</v>
+        <v>0.08582800808666816</v>
       </c>
       <c r="B1498">
         <v>-0.0533705224465395</v>
@@ -12343,7 +12343,7 @@
     </row>
     <row r="1499" spans="1:2">
       <c r="A1499">
-        <v>0.0870682747157288</v>
+        <v>0.08706827471572881</v>
       </c>
       <c r="B1499">
         <v>-0.06519263514602613</v>
@@ -12399,7 +12399,7 @@
     </row>
     <row r="1506" spans="1:2">
       <c r="A1506">
-        <v>0.08716491658445565</v>
+        <v>0.08716491658445563</v>
       </c>
       <c r="B1506">
         <v>-0.0834946152601832</v>
@@ -12423,7 +12423,7 @@
     </row>
     <row r="1509" spans="1:2">
       <c r="A1509">
-        <v>0.0855118793628963</v>
+        <v>0.08551187936289628</v>
       </c>
       <c r="B1509">
         <v>-0.0887231625190239</v>
@@ -12431,7 +12431,7 @@
     </row>
     <row r="1510" spans="1:2">
       <c r="A1510">
-        <v>0.08461168694670569</v>
+        <v>0.08461168694670568</v>
       </c>
       <c r="B1510">
         <v>-0.1018693640661095</v>
@@ -12439,7 +12439,7 @@
     </row>
     <row r="1511" spans="1:2">
       <c r="A1511">
-        <v>0.08567825984875094</v>
+        <v>0.08567825984875095</v>
       </c>
       <c r="B1511">
         <v>-0.075335527435759</v>
@@ -12447,7 +12447,7 @@
     </row>
     <row r="1512" spans="1:2">
       <c r="A1512">
-        <v>0.0855147566826757</v>
+        <v>0.08551475668267569</v>
       </c>
       <c r="B1512">
         <v>-0.0885751598445923</v>
@@ -12455,7 +12455,7 @@
     </row>
     <row r="1513" spans="1:2">
       <c r="A1513">
-        <v>0.08463078723363456</v>
+        <v>0.08463078723363457</v>
       </c>
       <c r="B1513">
         <v>-0.1014204933104832</v>
@@ -12479,7 +12479,7 @@
     </row>
     <row r="1516" spans="1:2">
       <c r="A1516">
-        <v>0.08611687990620126</v>
+        <v>0.08611687990620125</v>
       </c>
       <c r="B1516">
         <v>-0.09638218472929161</v>
@@ -12575,7 +12575,7 @@
     </row>
     <row r="1528" spans="1:2">
       <c r="A1528">
-        <v>0.08900136037334812</v>
+        <v>0.0890013603733481</v>
       </c>
       <c r="B1528">
         <v>-0.0783224683943855</v>
@@ -12607,7 +12607,7 @@
     </row>
     <row r="1532" spans="1:2">
       <c r="A1532">
-        <v>0.08555285748213498</v>
+        <v>0.08555285748213497</v>
       </c>
       <c r="B1532">
         <v>-0.09024774779469125</v>
@@ -12759,7 +12759,7 @@
     </row>
     <row r="1551" spans="1:2">
       <c r="A1551">
-        <v>0.067265003973832</v>
+        <v>0.06726500397383202</v>
       </c>
       <c r="B1551">
         <v>-0.07776719241820995</v>
@@ -12767,7 +12767,7 @@
     </row>
     <row r="1552" spans="1:2">
       <c r="A1552">
-        <v>0.06621059062397837</v>
+        <v>0.06621059062397835</v>
       </c>
       <c r="B1552">
         <v>-0.05646617094901885</v>
@@ -12911,7 +12911,7 @@
     </row>
     <row r="1570" spans="1:2">
       <c r="A1570">
-        <v>0.05269581591545308</v>
+        <v>0.05269581591545309</v>
       </c>
       <c r="B1570">
         <v>-0.04016762321398426</v>
@@ -12927,7 +12927,7 @@
     </row>
     <row r="1572" spans="1:2">
       <c r="A1572">
-        <v>0.05161988063919579</v>
+        <v>0.0516198806391958</v>
       </c>
       <c r="B1572">
         <v>-0.0271997125742347</v>
@@ -12951,7 +12951,7 @@
     </row>
     <row r="1575" spans="1:2">
       <c r="A1575">
-        <v>0.05019690837261136</v>
+        <v>0.05019690837261135</v>
       </c>
       <c r="B1575">
         <v>-0.04521033717939771</v>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="1580" spans="1:2">
       <c r="A1580">
-        <v>0.04377608434152847</v>
+        <v>0.04377608434152848</v>
       </c>
       <c r="B1580">
         <v>-0.04082684511930035</v>
@@ -13047,7 +13047,7 @@
     </row>
     <row r="1587" spans="1:2">
       <c r="A1587">
-        <v>0.0343890333044032</v>
+        <v>0.03438903330440321</v>
       </c>
       <c r="B1587">
         <v>-0.04960491990778859</v>
@@ -13071,7 +13071,7 @@
     </row>
     <row r="1590" spans="1:2">
       <c r="A1590">
-        <v>0.0324213623047028</v>
+        <v>0.03242136230470281</v>
       </c>
       <c r="B1590">
         <v>-0.0440656036921494</v>
@@ -13087,7 +13087,7 @@
     </row>
     <row r="1592" spans="1:2">
       <c r="A1592">
-        <v>0.03179120690457166</v>
+        <v>0.03179120690457167</v>
       </c>
       <c r="B1592">
         <v>-0.05108007203835463</v>
@@ -13191,7 +13191,7 @@
     </row>
     <row r="1605" spans="1:2">
       <c r="A1605">
-        <v>0.03090136673954076</v>
+        <v>0.03090136673954075</v>
       </c>
       <c r="B1605">
         <v>-0.02497903231478649</v>
@@ -13215,7 +13215,7 @@
     </row>
     <row r="1608" spans="1:2">
       <c r="A1608">
-        <v>0.03134482609368333</v>
+        <v>0.03134482609368332</v>
       </c>
       <c r="B1608">
         <v>-0.02002008867309257</v>
@@ -13527,7 +13527,7 @@
     </row>
     <row r="1647" spans="1:2">
       <c r="A1647">
-        <v>0.02828393055549169</v>
+        <v>0.0282839305554917</v>
       </c>
       <c r="B1647">
         <v>-0.01183268530009807</v>
@@ -13663,7 +13663,7 @@
     </row>
     <row r="1664" spans="1:2">
       <c r="A1664">
-        <v>0.02653042974543657</v>
+        <v>0.02653042974543656</v>
       </c>
       <c r="B1664">
         <v>-0.01638578009334513</v>
@@ -13735,7 +13735,7 @@
     </row>
     <row r="1673" spans="1:2">
       <c r="A1673">
-        <v>0.02622573206921788</v>
+        <v>0.02622573206921787</v>
       </c>
       <c r="B1673">
         <v>-0.01423089756004048</v>
@@ -14055,7 +14055,7 @@
     </row>
     <row r="1713" spans="1:2">
       <c r="A1713">
-        <v>0.007381412631587149</v>
+        <v>0.007381412631587148</v>
       </c>
       <c r="B1713">
         <v>-0.01161065719480492</v>
@@ -14303,7 +14303,7 @@
     </row>
     <row r="1744" spans="1:2">
       <c r="A1744">
-        <v>-0.0224227235500371</v>
+        <v>-0.02242272355003709</v>
       </c>
       <c r="B1744">
         <v>0.005475041461142638</v>
@@ -14343,7 +14343,7 @@
     </row>
     <row r="1749" spans="1:2">
       <c r="A1749">
-        <v>-0.0270028173455471</v>
+        <v>-0.02700281734554711</v>
       </c>
       <c r="B1749">
         <v>0.00904710462819347</v>
@@ -14423,7 +14423,7 @@
     </row>
     <row r="1759" spans="1:2">
       <c r="A1759">
-        <v>-0.03923420871685565</v>
+        <v>-0.03923420871685566</v>
       </c>
       <c r="B1759">
         <v>0.008016383179476616</v>
@@ -14431,7 +14431,7 @@
     </row>
     <row r="1760" spans="1:2">
       <c r="A1760">
-        <v>-0.04018070750192251</v>
+        <v>-0.04018070750192252</v>
       </c>
       <c r="B1760">
         <v>0.01300048450629543</v>
@@ -14455,7 +14455,7 @@
     </row>
     <row r="1763" spans="1:2">
       <c r="A1763">
-        <v>-0.04198307677708776</v>
+        <v>-0.04198307677708777</v>
       </c>
       <c r="B1763">
         <v>0.02031203119843417</v>
@@ -14471,7 +14471,7 @@
     </row>
     <row r="1765" spans="1:2">
       <c r="A1765">
-        <v>-0.04301946951536861</v>
+        <v>-0.04301946951536862</v>
       </c>
       <c r="B1765">
         <v>0.02243490106940538</v>
@@ -14663,7 +14663,7 @@
     </row>
     <row r="1789" spans="1:2">
       <c r="A1789">
-        <v>-0.05992948619212922</v>
+        <v>-0.05992948619212923</v>
       </c>
       <c r="B1789">
         <v>0.04034174435200732</v>
@@ -14807,7 +14807,7 @@
     </row>
     <row r="1807" spans="1:2">
       <c r="A1807">
-        <v>-0.08177913811918158</v>
+        <v>-0.0817791381191816</v>
       </c>
       <c r="B1807">
         <v>0.04482724634833968</v>
@@ -14831,7 +14831,7 @@
     </row>
     <row r="1810" spans="1:2">
       <c r="A1810">
-        <v>-0.08567798239375357</v>
+        <v>-0.08567798239375356</v>
       </c>
       <c r="B1810">
         <v>0.05043795595686795</v>
@@ -14839,7 +14839,7 @@
     </row>
     <row r="1811" spans="1:2">
       <c r="A1811">
-        <v>-0.08627229701220937</v>
+        <v>-0.08627229701220936</v>
       </c>
       <c r="B1811">
         <v>0.06036525125994707</v>
@@ -14847,7 +14847,7 @@
     </row>
     <row r="1812" spans="1:2">
       <c r="A1812">
-        <v>-0.08723741486222214</v>
+        <v>-0.08723741486222213</v>
       </c>
       <c r="B1812">
         <v>0.04930594084329165</v>
@@ -14855,7 +14855,7 @@
     </row>
     <row r="1813" spans="1:2">
       <c r="A1813">
-        <v>-0.08773240117810882</v>
+        <v>-0.08773240117810881</v>
       </c>
       <c r="B1813">
         <v>0.06036370313111572</v>
@@ -14911,7 +14911,7 @@
     </row>
     <row r="1820" spans="1:2">
       <c r="A1820">
-        <v>-0.0937838380928772</v>
+        <v>-0.09378383809287719</v>
       </c>
       <c r="B1820">
         <v>0.06522125928528499</v>
@@ -14919,7 +14919,7 @@
     </row>
     <row r="1821" spans="1:2">
       <c r="A1821">
-        <v>-0.09408300125356711</v>
+        <v>-0.0940830012535671</v>
       </c>
       <c r="B1821">
         <v>0.0751352911128329</v>
@@ -14959,7 +14959,7 @@
     </row>
     <row r="1826" spans="1:2">
       <c r="A1826">
-        <v>-0.0940291861155077</v>
+        <v>-0.09402918611550769</v>
       </c>
       <c r="B1826">
         <v>0.08724580188577757</v>
@@ -14975,7 +14975,7 @@
     </row>
     <row r="1828" spans="1:2">
       <c r="A1828">
-        <v>-0.09503120660433394</v>
+        <v>-0.09503120660433395</v>
       </c>
       <c r="B1828">
         <v>0.08435425300945365</v>
@@ -14983,7 +14983,7 @@
     </row>
     <row r="1829" spans="1:2">
       <c r="A1829">
-        <v>-0.09545543043734153</v>
+        <v>-0.09545543043734155</v>
       </c>
       <c r="B1829">
         <v>0.09103666687961098</v>
@@ -15087,7 +15087,7 @@
     </row>
     <row r="1842" spans="1:2">
       <c r="A1842">
-        <v>-0.09862365857713734</v>
+        <v>-0.09862365857713733</v>
       </c>
       <c r="B1842">
         <v>0.07361129479975936</v>
@@ -15111,7 +15111,7 @@
     </row>
     <row r="1845" spans="1:2">
       <c r="A1845">
-        <v>-0.09473566382062026</v>
+        <v>-0.09473566382062028</v>
       </c>
       <c r="B1845">
         <v>0.08436985053217061</v>
@@ -15119,7 +15119,7 @@
     </row>
     <row r="1846" spans="1:2">
       <c r="A1846">
-        <v>-0.09320384869157798</v>
+        <v>-0.093203848691578</v>
       </c>
       <c r="B1846">
         <v>0.09325745738883562</v>
@@ -15175,7 +15175,7 @@
     </row>
     <row r="1853" spans="1:2">
       <c r="A1853">
-        <v>-0.08876897291283956</v>
+        <v>-0.08876897291283954</v>
       </c>
       <c r="B1853">
         <v>0.08384542938348449</v>
@@ -15183,7 +15183,7 @@
     </row>
     <row r="1854" spans="1:2">
       <c r="A1854">
-        <v>-0.08790216495887086</v>
+        <v>-0.08790216495887085</v>
       </c>
       <c r="B1854">
         <v>0.0885165238329968</v>
@@ -15199,7 +15199,7 @@
     </row>
     <row r="1856" spans="1:2">
       <c r="A1856">
-        <v>-0.08623142091843969</v>
+        <v>-0.08623142091843967</v>
       </c>
       <c r="B1856">
         <v>0.08338149148343632</v>
@@ -15215,7 +15215,7 @@
     </row>
     <row r="1858" spans="1:2">
       <c r="A1858">
-        <v>-0.08445645856290004</v>
+        <v>-0.08445645856290006</v>
       </c>
       <c r="B1858">
         <v>0.07799828375930939</v>
@@ -15239,7 +15239,7 @@
     </row>
     <row r="1861" spans="1:2">
       <c r="A1861">
-        <v>-0.08288741928844059</v>
+        <v>-0.08288741928844058</v>
       </c>
       <c r="B1861">
         <v>0.07434222561578707</v>
@@ -15247,7 +15247,7 @@
     </row>
     <row r="1862" spans="1:2">
       <c r="A1862">
-        <v>-0.08246013680497953</v>
+        <v>-0.08246013680497952</v>
       </c>
       <c r="B1862">
         <v>0.06271294470248279</v>
@@ -15327,7 +15327,7 @@
     </row>
     <row r="1872" spans="1:2">
       <c r="A1872">
-        <v>-0.07367132648718407</v>
+        <v>-0.07367132648718408</v>
       </c>
       <c r="B1872">
         <v>0.0684778855362449</v>
@@ -15343,7 +15343,7 @@
     </row>
     <row r="1874" spans="1:2">
       <c r="A1874">
-        <v>-0.07075734286686369</v>
+        <v>-0.07075734286686368</v>
       </c>
       <c r="B1874">
         <v>0.06815745669279138</v>
@@ -15351,7 +15351,7 @@
     </row>
     <row r="1875" spans="1:2">
       <c r="A1875">
-        <v>-0.06912289782511082</v>
+        <v>-0.06912289782511083</v>
       </c>
       <c r="B1875">
         <v>0.06176340742398168</v>
@@ -15367,7 +15367,7 @@
     </row>
     <row r="1877" spans="1:2">
       <c r="A1877">
-        <v>-0.06646939188263737</v>
+        <v>-0.06646939188263738</v>
       </c>
       <c r="B1877">
         <v>0.07246419072036936</v>
@@ -15463,7 +15463,7 @@
     </row>
     <row r="1889" spans="1:2">
       <c r="A1889">
-        <v>-0.06198385914433766</v>
+        <v>-0.06198385914433765</v>
       </c>
       <c r="B1889">
         <v>0.04887530155803521</v>
@@ -15535,7 +15535,7 @@
     </row>
     <row r="1898" spans="1:2">
       <c r="A1898">
-        <v>-0.05781508201192115</v>
+        <v>-0.05781508201192114</v>
       </c>
       <c r="B1898">
         <v>0.04079744305306576</v>
@@ -15583,7 +15583,7 @@
     </row>
     <row r="1904" spans="1:2">
       <c r="A1904">
-        <v>-0.05427620452503311</v>
+        <v>-0.05427620452503312</v>
       </c>
       <c r="B1904">
         <v>0.04686112393809161</v>
@@ -15623,7 +15623,7 @@
     </row>
     <row r="1909" spans="1:2">
       <c r="A1909">
-        <v>-0.0496450378775776</v>
+        <v>-0.04964503787757761</v>
       </c>
       <c r="B1909">
         <v>0.05174336054134887</v>
@@ -15639,7 +15639,7 @@
     </row>
     <row r="1911" spans="1:2">
       <c r="A1911">
-        <v>-0.04842712153189859</v>
+        <v>-0.04842712153189858</v>
       </c>
       <c r="B1911">
         <v>0.04987228098280205</v>
@@ -15831,7 +15831,7 @@
     </row>
     <row r="1935" spans="1:2">
       <c r="A1935">
-        <v>-0.03269929267163477</v>
+        <v>-0.03269929267163478</v>
       </c>
       <c r="B1935">
         <v>0.03518521328260693</v>
@@ -15895,7 +15895,7 @@
     </row>
     <row r="1943" spans="1:2">
       <c r="A1943">
-        <v>-0.02727890298592227</v>
+        <v>-0.02727890298592226</v>
       </c>
       <c r="B1943">
         <v>0.03115234108793086</v>
@@ -15903,7 +15903,7 @@
     </row>
     <row r="1944" spans="1:2">
       <c r="A1944">
-        <v>-0.02737976810359374</v>
+        <v>-0.02737976810359375</v>
       </c>
       <c r="B1944">
         <v>0.03054976275289878</v>
@@ -15919,7 +15919,7 @@
     </row>
     <row r="1946" spans="1:2">
       <c r="A1946">
-        <v>-0.02701375011024668</v>
+        <v>-0.02701375011024669</v>
       </c>
       <c r="B1946">
         <v>0.02604991135283452</v>
@@ -15943,7 +15943,7 @@
     </row>
     <row r="1949" spans="1:2">
       <c r="A1949">
-        <v>-0.02549237334634494</v>
+        <v>-0.02549237334634495</v>
       </c>
       <c r="B1949">
         <v>0.0245411499509709</v>
@@ -16007,7 +16007,7 @@
     </row>
     <row r="1957" spans="1:2">
       <c r="A1957">
-        <v>-0.01830813502057944</v>
+        <v>-0.01830813502057943</v>
       </c>
       <c r="B1957">
         <v>0.02842387827522685</v>
@@ -16279,7 +16279,7 @@
     </row>
     <row r="1991" spans="1:2">
       <c r="A1991">
-        <v>-0.004591097017379021</v>
+        <v>-0.004591097017379022</v>
       </c>
       <c r="B1991">
         <v>0.008050361388112215</v>
@@ -16303,7 +16303,7 @@
     </row>
     <row r="1994" spans="1:2">
       <c r="A1994">
-        <v>-0.005445509735727297</v>
+        <v>-0.005445509735727298</v>
       </c>
       <c r="B1994">
         <v>0.001367845583892802</v>
@@ -16343,7 +16343,7 @@
     </row>
     <row r="1999" spans="1:2">
       <c r="A1999">
-        <v>-0.005320466046315583</v>
+        <v>-0.005320466046315582</v>
       </c>
       <c r="B1999">
         <v>-0.003897121094047939</v>
@@ -16351,7 +16351,7 @@
     </row>
     <row r="2000" spans="1:2">
       <c r="A2000">
-        <v>-0.004634817349782685</v>
+        <v>-0.004634817349782684</v>
       </c>
       <c r="B2000">
         <v>-0.001972079333446786</v>
@@ -16367,7 +16367,7 @@
     </row>
     <row r="2002" spans="1:2">
       <c r="A2002">
-        <v>-0.002489069093883635</v>
+        <v>-0.002489069093883636</v>
       </c>
       <c r="B2002">
         <v>0.0001178907386432115</v>
@@ -16463,7 +16463,7 @@
     </row>
     <row r="2014" spans="1:2">
       <c r="A2014">
-        <v>0.00742924407038295</v>
+        <v>0.007429244070382949</v>
       </c>
       <c r="B2014">
         <v>0.00590913326649023</v>
@@ -16495,7 +16495,7 @@
     </row>
     <row r="2018" spans="1:2">
       <c r="A2018">
-        <v>0.009342246708028547</v>
+        <v>0.009342246708028546</v>
       </c>
       <c r="B2018">
         <v>0.003048858737833449</v>
@@ -16503,7 +16503,7 @@
     </row>
     <row r="2019" spans="1:2">
       <c r="A2019">
-        <v>0.009744721889854844</v>
+        <v>0.009744721889854842</v>
       </c>
       <c r="B2019">
         <v>0.0001163248726987476</v>
@@ -16551,7 +16551,7 @@
     </row>
     <row r="2025" spans="1:2">
       <c r="A2025">
-        <v>0.01268204182452954</v>
+        <v>0.01268204182452955</v>
       </c>
       <c r="B2025">
         <v>-0.00352746191543396</v>
@@ -16583,7 +16583,7 @@
     </row>
     <row r="2029" spans="1:2">
       <c r="A2029">
-        <v>0.01487178696312452</v>
+        <v>0.01487178696312453</v>
       </c>
       <c r="B2029">
         <v>-0.009846708196510789</v>
@@ -16639,7 +16639,7 @@
     </row>
     <row r="2036" spans="1:2">
       <c r="A2036">
-        <v>0.01911546348237827</v>
+        <v>0.01911546348237826</v>
       </c>
       <c r="B2036">
         <v>-0.01195741295770336</v>
@@ -16647,7 +16647,7 @@
     </row>
     <row r="2037" spans="1:2">
       <c r="A2037">
-        <v>0.01958936042507618</v>
+        <v>0.01958936042507617</v>
       </c>
       <c r="B2037">
         <v>-0.01483853233459342</v>
@@ -16671,7 +16671,7 @@
     </row>
     <row r="2040" spans="1:2">
       <c r="A2040">
-        <v>0.02175458618993151</v>
+        <v>0.02175458618993152</v>
       </c>
       <c r="B2040">
         <v>-0.009756378822280531</v>
@@ -16791,7 +16791,7 @@
     </row>
     <row r="2055" spans="1:2">
       <c r="A2055">
-        <v>0.03310506838947319</v>
+        <v>0.03310506838947318</v>
       </c>
       <c r="B2055">
         <v>-0.0123901544224001</v>
@@ -16799,7 +16799,7 @@
     </row>
     <row r="2056" spans="1:2">
       <c r="A2056">
-        <v>0.03364103208602072</v>
+        <v>0.03364103208602073</v>
       </c>
       <c r="B2056">
         <v>-0.01721159000736616</v>
@@ -16807,7 +16807,7 @@
     </row>
     <row r="2057" spans="1:2">
       <c r="A2057">
-        <v>0.03391124380586491</v>
+        <v>0.03391124380586492</v>
       </c>
       <c r="B2057">
         <v>-0.02202087374559891</v>
@@ -16823,7 +16823,7 @@
     </row>
     <row r="2059" spans="1:2">
       <c r="A2059">
-        <v>0.03538899515322544</v>
+        <v>0.03538899515322545</v>
       </c>
       <c r="B2059">
         <v>-0.02163000887011535</v>
@@ -16967,7 +16967,7 @@
     </row>
     <row r="2077" spans="1:2">
       <c r="A2077">
-        <v>0.04283648778668462</v>
+        <v>0.04283648778668461</v>
       </c>
       <c r="B2077">
         <v>-0.03878386419703972</v>
@@ -16983,7 +16983,7 @@
     </row>
     <row r="2079" spans="1:2">
       <c r="A2079">
-        <v>0.04456860955823673</v>
+        <v>0.04456860955823674</v>
       </c>
       <c r="B2079">
         <v>-0.03521254376954275</v>
@@ -17135,7 +17135,7 @@
     </row>
     <row r="2098" spans="1:2">
       <c r="A2098">
-        <v>0.05835699691361155</v>
+        <v>0.05835699691361154</v>
       </c>
       <c r="B2098">
         <v>-0.03412672311517362</v>
@@ -17167,7 +17167,7 @@
     </row>
     <row r="2102" spans="1:2">
       <c r="A2102">
-        <v>0.06116745526597052</v>
+        <v>0.06116745526597053</v>
       </c>
       <c r="B2102">
         <v>-0.04861884371524106</v>
@@ -17191,7 +17191,7 @@
     </row>
     <row r="2105" spans="1:2">
       <c r="A2105">
-        <v>0.06364527225014009</v>
+        <v>0.06364527225014011</v>
       </c>
       <c r="B2105">
         <v>-0.03610261057544228</v>
@@ -17223,7 +17223,7 @@
     </row>
     <row r="2109" spans="1:2">
       <c r="A2109">
-        <v>0.06746326688987841</v>
+        <v>0.0674632668898784</v>
       </c>
       <c r="B2109">
         <v>-0.05078291412095881</v>
@@ -17319,7 +17319,7 @@
     </row>
     <row r="2121" spans="1:2">
       <c r="A2121">
-        <v>0.08248859484013864</v>
+        <v>0.08248859484013865</v>
       </c>
       <c r="B2121">
         <v>-0.04724236734736964</v>
@@ -17335,7 +17335,7 @@
     </row>
     <row r="2123" spans="1:2">
       <c r="A2123">
-        <v>0.08558117604522347</v>
+        <v>0.08558117604522346</v>
       </c>
       <c r="B2123">
         <v>-0.0418711465754642</v>
@@ -17343,7 +17343,7 @@
     </row>
     <row r="2124" spans="1:2">
       <c r="A2124">
-        <v>0.08743950699236006</v>
+        <v>0.08743950699236007</v>
       </c>
       <c r="B2124">
         <v>-0.0512414958618308</v>
@@ -17351,7 +17351,7 @@
     </row>
     <row r="2125" spans="1:2">
       <c r="A2125">
-        <v>0.08805133601599564</v>
+        <v>0.08805133601599566</v>
       </c>
       <c r="B2125">
         <v>-0.06206854985849342</v>
@@ -17431,7 +17431,7 @@
     </row>
     <row r="2135" spans="1:2">
       <c r="A2135">
-        <v>0.09669301553871604</v>
+        <v>0.09669301553871602</v>
       </c>
       <c r="B2135">
         <v>-0.08397537183365289</v>
@@ -17447,7 +17447,7 @@
     </row>
     <row r="2137" spans="1:2">
       <c r="A2137">
-        <v>0.09735026337865681</v>
+        <v>0.09735026337865682</v>
       </c>
       <c r="B2137">
         <v>-0.08518472777162467</v>
@@ -17463,7 +17463,7 @@
     </row>
     <row r="2139" spans="1:2">
       <c r="A2139">
-        <v>0.09753517650518811</v>
+        <v>0.0975351765051881</v>
       </c>
       <c r="B2139">
         <v>-0.08568789036587132</v>
@@ -17639,7 +17639,7 @@
     </row>
     <row r="2161" spans="1:2">
       <c r="A2161">
-        <v>0.1172963644361225</v>
+        <v>0.1172963644361224</v>
       </c>
       <c r="B2161">
         <v>-0.09071602191853856</v>
@@ -17679,7 +17679,7 @@
     </row>
     <row r="2166" spans="1:2">
       <c r="A2166">
-        <v>0.1207120952588449</v>
+        <v>0.120712095258845</v>
       </c>
       <c r="B2166">
         <v>-0.08553763740676601</v>
@@ -17735,7 +17735,7 @@
     </row>
     <row r="2173" spans="1:2">
       <c r="A2173">
-        <v>0.123892641138783</v>
+        <v>0.1238926411387831</v>
       </c>
       <c r="B2173">
         <v>-0.1111329806861638</v>
@@ -17783,7 +17783,7 @@
     </row>
     <row r="2179" spans="1:2">
       <c r="A2179">
-        <v>0.1190189392502269</v>
+        <v>0.119018939250227</v>
       </c>
       <c r="B2179">
         <v>-0.1378153296402984</v>
@@ -18127,7 +18127,7 @@
     </row>
     <row r="2222" spans="1:2">
       <c r="A2222">
-        <v>0.07761861165750547</v>
+        <v>0.07761861165750548</v>
       </c>
       <c r="B2222">
         <v>-0.09632288832467761</v>
@@ -18223,7 +18223,7 @@
     </row>
     <row r="2234" spans="1:2">
       <c r="A2234">
-        <v>0.07090947483086699</v>
+        <v>0.07090947483086697</v>
       </c>
       <c r="B2234">
         <v>-0.05947159982304173</v>
@@ -18247,7 +18247,7 @@
     </row>
     <row r="2237" spans="1:2">
       <c r="A2237">
-        <v>0.06897335845921482</v>
+        <v>0.0689733584592148</v>
       </c>
       <c r="B2237">
         <v>-0.05508475824276005</v>
@@ -18527,7 +18527,7 @@
     </row>
     <row r="2272" spans="1:2">
       <c r="A2272">
-        <v>0.04674242724283152</v>
+        <v>0.04674242724283153</v>
       </c>
       <c r="B2272">
         <v>-0.0366054028453906</v>
@@ -18655,7 +18655,7 @@
     </row>
     <row r="2288" spans="1:2">
       <c r="A2288">
-        <v>0.03806568143594222</v>
+        <v>0.03806568143594221</v>
       </c>
       <c r="B2288">
         <v>-0.04004577417612776</v>
@@ -18919,7 +18919,7 @@
     </row>
     <row r="2321" spans="1:2">
       <c r="A2321">
-        <v>0.04067614749168937</v>
+        <v>0.04067614749168936</v>
       </c>
       <c r="B2321">
         <v>-0.01893940667866723</v>
@@ -19119,7 +19119,7 @@
     </row>
     <row r="2346" spans="1:2">
       <c r="A2346">
-        <v>0.04273189544517528</v>
+        <v>0.04273189544517527</v>
       </c>
       <c r="B2346">
         <v>-0.02722999746148425</v>
@@ -19167,7 +19167,7 @@
     </row>
     <row r="2352" spans="1:2">
       <c r="A2352">
-        <v>0.041990429581907</v>
+        <v>0.04199042958190702</v>
       </c>
       <c r="B2352">
         <v>-0.03117265090206089</v>
@@ -19199,7 +19199,7 @@
     </row>
     <row r="2356" spans="1:2">
       <c r="A2356">
-        <v>0.04031579324130568</v>
+        <v>0.04031579324130571</v>
       </c>
       <c r="B2356">
         <v>-0.04120614816901025</v>
@@ -19215,7 +19215,7 @@
     </row>
     <row r="2358" spans="1:2">
       <c r="A2358">
-        <v>0.04114288062228701</v>
+        <v>0.041142880622287</v>
       </c>
       <c r="B2358">
         <v>-0.03422345094199963</v>
@@ -19271,7 +19271,7 @@
     </row>
     <row r="2365" spans="1:2">
       <c r="A2365">
-        <v>0.04541636661065736</v>
+        <v>0.04541636661065735</v>
       </c>
       <c r="B2365">
         <v>-0.03018518456188612</v>
@@ -19287,7 +19287,7 @@
     </row>
     <row r="2367" spans="1:2">
       <c r="A2367">
-        <v>0.04656901623557508</v>
+        <v>0.04656901623557509</v>
       </c>
       <c r="B2367">
         <v>-0.02295543353069052</v>
@@ -19455,7 +19455,7 @@
     </row>
     <row r="2388" spans="1:2">
       <c r="A2388">
-        <v>0.04416797286233504</v>
+        <v>0.04416797286233503</v>
       </c>
       <c r="B2388">
         <v>-0.03041124262478601</v>
@@ -19495,7 +19495,7 @@
     </row>
     <row r="2393" spans="1:2">
       <c r="A2393">
-        <v>0.04445739271563404</v>
+        <v>0.04445739271563403</v>
       </c>
       <c r="B2393">
         <v>-0.04027543372613751</v>
@@ -19559,7 +19559,7 @@
     </row>
     <row r="2401" spans="1:2">
       <c r="A2401">
-        <v>0.04355850184386284</v>
+        <v>0.04355850184386285</v>
       </c>
       <c r="B2401">
         <v>-0.03558384859648012</v>
@@ -19623,7 +19623,7 @@
     </row>
     <row r="2409" spans="1:2">
       <c r="A2409">
-        <v>0.04518617677866373</v>
+        <v>0.04518617677866372</v>
       </c>
       <c r="B2409">
         <v>-0.02481460141301817</v>
@@ -19663,7 +19663,7 @@
     </row>
     <row r="2414" spans="1:2">
       <c r="A2414">
-        <v>0.04352991631801177</v>
+        <v>0.04352991631801176</v>
       </c>
       <c r="B2414">
         <v>-0.04057187395952733</v>
@@ -19807,7 +19807,7 @@
     </row>
     <row r="2432" spans="1:2">
       <c r="A2432">
-        <v>0.0470341936700021</v>
+        <v>0.04703419367000209</v>
       </c>
       <c r="B2432">
         <v>-0.02320094585609489</v>
@@ -19815,7 +19815,7 @@
     </row>
     <row r="2433" spans="1:2">
       <c r="A2433">
-        <v>0.04655795933732181</v>
+        <v>0.0465579593373218</v>
       </c>
       <c r="B2433">
         <v>-0.02893232222988296</v>
@@ -20279,7 +20279,7 @@
     </row>
     <row r="2491" spans="1:2">
       <c r="A2491">
-        <v>0.03290204852761238</v>
+        <v>0.03290204852761239</v>
       </c>
       <c r="B2491">
         <v>-0.02707549088804395</v>
@@ -20359,7 +20359,7 @@
     </row>
     <row r="2501" spans="1:2">
       <c r="A2501">
-        <v>0.03172389807861313</v>
+        <v>0.03172389807861314</v>
       </c>
       <c r="B2501">
         <v>-0.019406952166519</v>
@@ -20479,7 +20479,7 @@
     </row>
     <row r="2516" spans="1:2">
       <c r="A2516">
-        <v>0.03190906946900093</v>
+        <v>0.03190906946900092</v>
       </c>
       <c r="B2516">
         <v>-0.01568369904380429</v>
@@ -20567,7 +20567,7 @@
     </row>
     <row r="2527" spans="1:2">
       <c r="A2527">
-        <v>0.0308449911130066</v>
+        <v>0.03084499111300661</v>
       </c>
       <c r="B2527">
         <v>-0.01639869960799345</v>
@@ -20679,7 +20679,7 @@
     </row>
     <row r="2541" spans="1:2">
       <c r="A2541">
-        <v>0.03119306902399089</v>
+        <v>0.03119306902399088</v>
       </c>
       <c r="B2541">
         <v>-0.01370940981319446</v>
@@ -20703,7 +20703,7 @@
     </row>
     <row r="2544" spans="1:2">
       <c r="A2544">
-        <v>0.03100873573966386</v>
+        <v>0.03100873573966385</v>
       </c>
       <c r="B2544">
         <v>-0.01431105271362476</v>
@@ -20743,7 +20743,7 @@
     </row>
     <row r="2549" spans="1:2">
       <c r="A2549">
-        <v>0.03042759819088049</v>
+        <v>0.03042759819088048</v>
       </c>
       <c r="B2549">
         <v>-0.01396782478736069</v>
@@ -20823,7 +20823,7 @@
     </row>
     <row r="2559" spans="1:2">
       <c r="A2559">
-        <v>0.02723968058843963</v>
+        <v>0.02723968058843962</v>
       </c>
       <c r="B2559">
         <v>-0.02065626496189354</v>
@@ -21015,7 +21015,7 @@
     </row>
     <row r="2583" spans="1:2">
       <c r="A2583">
-        <v>0.01495987892077457</v>
+        <v>0.01495987892077458</v>
       </c>
       <c r="B2583">
         <v>-0.007295468127767712</v>
@@ -21039,7 +21039,7 @@
     </row>
     <row r="2586" spans="1:2">
       <c r="A2586">
-        <v>0.01473966520620348</v>
+        <v>0.01473966520620347</v>
       </c>
       <c r="B2586">
         <v>-0.003154601825294368</v>
@@ -21103,7 +21103,7 @@
     </row>
     <row r="2594" spans="1:2">
       <c r="A2594">
-        <v>0.0086870716144576</v>
+        <v>0.008687071614457602</v>
       </c>
       <c r="B2594">
         <v>-0.009624181462962067</v>
@@ -21111,7 +21111,7 @@
     </row>
     <row r="2595" spans="1:2">
       <c r="A2595">
-        <v>0.00759745559949494</v>
+        <v>0.007597455599494939</v>
       </c>
       <c r="B2595">
         <v>-0.0117939671599907</v>
@@ -21239,7 +21239,7 @@
     </row>
     <row r="2611" spans="1:2">
       <c r="A2611">
-        <v>0.004984733488280416</v>
+        <v>0.004984733488280415</v>
       </c>
       <c r="B2611">
         <v>0.003815799208242154</v>
@@ -21295,7 +21295,7 @@
     </row>
     <row r="2618" spans="1:2">
       <c r="A2618">
-        <v>0.0009902419390795706</v>
+        <v>0.0009902419390795708</v>
       </c>
       <c r="B2618">
         <v>-0.001211343392041986</v>
@@ -21351,7 +21351,7 @@
     </row>
     <row r="2625" spans="1:2">
       <c r="A2625">
-        <v>-0.006637061610450268</v>
+        <v>-0.006637061610450267</v>
       </c>
       <c r="B2625">
         <v>-0.01328382948216644</v>
@@ -21359,7 +21359,7 @@
     </row>
     <row r="2626" spans="1:2">
       <c r="A2626">
-        <v>-0.007159541118686044</v>
+        <v>-0.007159541118686043</v>
       </c>
       <c r="B2626">
         <v>-0.01215697961121975</v>
@@ -21415,7 +21415,7 @@
     </row>
     <row r="2633" spans="1:2">
       <c r="A2633">
-        <v>-0.009894054735745509</v>
+        <v>-0.009894054735745507</v>
       </c>
       <c r="B2633">
         <v>-0.005501489590292064</v>
@@ -21439,7 +21439,7 @@
     </row>
     <row r="2636" spans="1:2">
       <c r="A2636">
-        <v>-0.0105288758732482</v>
+        <v>-0.01052887587324821</v>
       </c>
       <c r="B2636">
         <v>-0.000125183056002065</v>
@@ -21503,7 +21503,7 @@
     </row>
     <row r="2644" spans="1:2">
       <c r="A2644">
-        <v>-0.01147053320514732</v>
+        <v>-0.01147053320514733</v>
       </c>
       <c r="B2644">
         <v>0.01264867278133686</v>
@@ -21807,7 +21807,7 @@
     </row>
     <row r="2682" spans="1:2">
       <c r="A2682">
-        <v>-0.02692573214440485</v>
+        <v>-0.02692573214440486</v>
       </c>
       <c r="B2682">
         <v>0.009711583430496606</v>
@@ -21959,7 +21959,7 @@
     </row>
     <row r="2701" spans="1:2">
       <c r="A2701">
-        <v>-0.04031894460539006</v>
+        <v>-0.04031894460539007</v>
       </c>
       <c r="B2701">
         <v>0.0202596696225763</v>
@@ -21991,7 +21991,7 @@
     </row>
     <row r="2705" spans="1:2">
       <c r="A2705">
-        <v>-0.04412833964136028</v>
+        <v>-0.04412833964136029</v>
       </c>
       <c r="B2705">
         <v>0.0149828286891216</v>
@@ -22007,7 +22007,7 @@
     </row>
     <row r="2707" spans="1:2">
       <c r="A2707">
-        <v>-0.0457359310891675</v>
+        <v>-0.04573593108916749</v>
       </c>
       <c r="B2707">
         <v>0.02276927675020879</v>
@@ -22071,7 +22071,7 @@
     </row>
     <row r="2715" spans="1:2">
       <c r="A2715">
-        <v>-0.04572144279035486</v>
+        <v>-0.04572144279035487</v>
       </c>
       <c r="B2715">
         <v>0.03217471991493692</v>
@@ -22111,7 +22111,7 @@
     </row>
     <row r="2720" spans="1:2">
       <c r="A2720">
-        <v>-0.04369372590064781</v>
+        <v>-0.0436937259006478</v>
       </c>
       <c r="B2720">
         <v>0.04367674422023571</v>
@@ -22175,7 +22175,7 @@
     </row>
     <row r="2728" spans="1:2">
       <c r="A2728">
-        <v>-0.04457629827431335</v>
+        <v>-0.04457629827431334</v>
       </c>
       <c r="B2728">
         <v>0.04568820854767441</v>
@@ -22183,7 +22183,7 @@
     </row>
     <row r="2729" spans="1:2">
       <c r="A2729">
-        <v>-0.04505605559216094</v>
+        <v>-0.04505605559216095</v>
       </c>
       <c r="B2729">
         <v>0.0483877687306431</v>
@@ -22223,7 +22223,7 @@
     </row>
     <row r="2734" spans="1:2">
       <c r="A2734">
-        <v>-0.04780097462815185</v>
+        <v>-0.04780097462815184</v>
       </c>
       <c r="B2734">
         <v>0.04038989550747552</v>
@@ -22391,7 +22391,7 @@
     </row>
     <row r="2755" spans="1:2">
       <c r="A2755">
-        <v>-0.04557299588711744</v>
+        <v>-0.04557299588711745</v>
       </c>
       <c r="B2755">
         <v>0.03373079666666445</v>
@@ -22463,7 +22463,7 @@
     </row>
     <row r="2764" spans="1:2">
       <c r="A2764">
-        <v>-0.04278655233914322</v>
+        <v>-0.04278655233914323</v>
       </c>
       <c r="B2764">
         <v>0.03539279373690318</v>
@@ -22543,7 +22543,7 @@
     </row>
     <row r="2774" spans="1:2">
       <c r="A2774">
-        <v>-0.035392715195076</v>
+        <v>-0.03539271519507601</v>
       </c>
       <c r="B2774">
         <v>0.03792139328675903</v>
@@ -22759,7 +22759,7 @@
     </row>
     <row r="2801" spans="1:2">
       <c r="A2801">
-        <v>-0.01109844782187971</v>
+        <v>-0.01109844782187972</v>
       </c>
       <c r="B2801">
         <v>0.02232947335811764</v>
@@ -22815,7 +22815,7 @@
     </row>
     <row r="2808" spans="1:2">
       <c r="A2808">
-        <v>-0.01061263495628844</v>
+        <v>-0.01061263495628845</v>
       </c>
       <c r="B2808">
         <v>0.004717859687791481</v>
@@ -22855,7 +22855,7 @@
     </row>
     <row r="2813" spans="1:2">
       <c r="A2813">
-        <v>-0.007089111185975737</v>
+        <v>-0.007089111185975736</v>
       </c>
       <c r="B2813">
         <v>0.004084170980740431</v>
@@ -23007,7 +23007,7 @@
     </row>
     <row r="2832" spans="1:2">
       <c r="A2832">
-        <v>0.002759203924543542</v>
+        <v>0.002759203924543541</v>
       </c>
       <c r="B2832">
         <v>-0.006599840234104093</v>
@@ -23039,7 +23039,7 @@
     </row>
     <row r="2836" spans="1:2">
       <c r="A2836">
-        <v>0.002569685516683091</v>
+        <v>0.00256968551668309</v>
       </c>
       <c r="B2836">
         <v>-0.01136802347460097</v>
@@ -23143,7 +23143,7 @@
     </row>
     <row r="2849" spans="1:2">
       <c r="A2849">
-        <v>0.01247433769320988</v>
+        <v>0.01247433769320989</v>
       </c>
       <c r="B2849">
         <v>0.001137867177266827</v>
@@ -23263,7 +23263,7 @@
     </row>
     <row r="2864" spans="1:2">
       <c r="A2864">
-        <v>0.02537044051193096</v>
+        <v>0.02537044051193095</v>
       </c>
       <c r="B2864">
         <v>-0.007773450930708137</v>
@@ -23407,7 +23407,7 @@
     </row>
     <row r="2882" spans="1:2">
       <c r="A2882">
-        <v>0.04271922932702581</v>
+        <v>0.0427192293270258</v>
       </c>
       <c r="B2882">
         <v>-0.02221239499465044</v>
@@ -23423,7 +23423,7 @@
     </row>
     <row r="2884" spans="1:2">
       <c r="A2884">
-        <v>0.04430987019792441</v>
+        <v>0.04430987019792442</v>
       </c>
       <c r="B2884">
         <v>-0.02247107590358688</v>
@@ -23511,7 +23511,7 @@
     </row>
     <row r="2895" spans="1:2">
       <c r="A2895">
-        <v>0.04246560929163815</v>
+        <v>0.04246560929163814</v>
       </c>
       <c r="B2895">
         <v>-0.04538180939441583</v>
@@ -23583,7 +23583,7 @@
     </row>
     <row r="2904" spans="1:2">
       <c r="A2904">
-        <v>0.04726042053551574</v>
+        <v>0.04726042053551575</v>
       </c>
       <c r="B2904">
         <v>-0.04669005385929381</v>
@@ -23631,7 +23631,7 @@
     </row>
     <row r="2910" spans="1:2">
       <c r="A2910">
-        <v>0.05586111600520662</v>
+        <v>0.05586111600520661</v>
       </c>
       <c r="B2910">
         <v>-0.02054298178337888</v>
@@ -23639,7 +23639,7 @@
     </row>
     <row r="2911" spans="1:2">
       <c r="A2911">
-        <v>0.05745600061476648</v>
+        <v>0.05745600061476649</v>
       </c>
       <c r="B2911">
         <v>-0.02462262455334097</v>
@@ -23663,7 +23663,7 @@
     </row>
     <row r="2914" spans="1:2">
       <c r="A2914">
-        <v>0.06046303487766917</v>
+        <v>0.06046303487766918</v>
       </c>
       <c r="B2914">
         <v>-0.02603416238837841</v>
@@ -23671,7 +23671,7 @@
     </row>
     <row r="2915" spans="1:2">
       <c r="A2915">
-        <v>0.06118271397755079</v>
+        <v>0.06118271397755078</v>
       </c>
       <c r="B2915">
         <v>-0.01681234637455331</v>
@@ -23727,7 +23727,7 @@
     </row>
     <row r="2922" spans="1:2">
       <c r="A2922">
-        <v>0.06103826104494598</v>
+        <v>0.06103826104494597</v>
       </c>
       <c r="B2922">
         <v>-0.0504306382331654</v>
@@ -23791,7 +23791,7 @@
     </row>
     <row r="2930" spans="1:2">
       <c r="A2930">
-        <v>0.06692568051152464</v>
+        <v>0.06692568051152466</v>
       </c>
       <c r="B2930">
         <v>-0.04148587360503653</v>
@@ -23831,7 +23831,7 @@
     </row>
     <row r="2935" spans="1:2">
       <c r="A2935">
-        <v>0.0731000133154447</v>
+        <v>0.07310001331544472</v>
       </c>
       <c r="B2935">
         <v>-0.05617104598186362</v>
@@ -23847,7 +23847,7 @@
     </row>
     <row r="2937" spans="1:2">
       <c r="A2937">
-        <v>0.07503287358776947</v>
+        <v>0.07503287358776949</v>
       </c>
       <c r="B2937">
         <v>-0.0536893852001703</v>
@@ -23975,7 +23975,7 @@
     </row>
     <row r="2953" spans="1:2">
       <c r="A2953">
-        <v>0.08267581629685566</v>
+        <v>0.08267581629685565</v>
       </c>
       <c r="B2953">
         <v>-0.06330525161621026</v>
@@ -23999,7 +23999,7 @@
     </row>
     <row r="2956" spans="1:2">
       <c r="A2956">
-        <v>0.08593960186084222</v>
+        <v>0.08593960186084224</v>
       </c>
       <c r="B2956">
         <v>-0.06684729882672436</v>
@@ -24031,7 +24031,7 @@
     </row>
     <row r="2960" spans="1:2">
       <c r="A2960">
-        <v>0.08588979607023028</v>
+        <v>0.08588979607023027</v>
       </c>
       <c r="B2960">
         <v>-0.08788132269987958</v>
@@ -24127,7 +24127,7 @@
     </row>
     <row r="2972" spans="1:2">
       <c r="A2972">
-        <v>0.09221812312613489</v>
+        <v>0.09221812312613491</v>
       </c>
       <c r="B2972">
         <v>-0.08024426643469695</v>
@@ -24135,7 +24135,7 @@
     </row>
     <row r="2973" spans="1:2">
       <c r="A2973">
-        <v>0.09267200067743107</v>
+        <v>0.09267200067743109</v>
       </c>
       <c r="B2973">
         <v>-0.08682685965683445</v>
@@ -24151,7 +24151,7 @@
     </row>
     <row r="2975" spans="1:2">
       <c r="A2975">
-        <v>0.09350360297657793</v>
+        <v>0.09350360297657795</v>
       </c>
       <c r="B2975">
         <v>-0.08127857637171854</v>
@@ -24175,7 +24175,7 @@
     </row>
     <row r="2978" spans="1:2">
       <c r="A2978">
-        <v>0.09261348754171893</v>
+        <v>0.09261348754171894</v>
       </c>
       <c r="B2978">
         <v>-0.08637448185167873</v>
@@ -24199,7 +24199,7 @@
     </row>
     <row r="2981" spans="1:2">
       <c r="A2981">
-        <v>0.09177876380733827</v>
+        <v>0.09177876380733825</v>
       </c>
       <c r="B2981">
         <v>-0.08986425846472823</v>
@@ -24255,7 +24255,7 @@
     </row>
     <row r="2988" spans="1:2">
       <c r="A2988">
-        <v>0.08566481560805665</v>
+        <v>0.08566481560805664</v>
       </c>
       <c r="B2988">
         <v>-0.09055687882349739</v>
@@ -24271,7 +24271,7 @@
     </row>
     <row r="2990" spans="1:2">
       <c r="A2990">
-        <v>0.08407487849591185</v>
+        <v>0.08407487849591183</v>
       </c>
       <c r="B2990">
         <v>-0.08525831458789712</v>
@@ -24295,7 +24295,7 @@
     </row>
     <row r="2993" spans="1:2">
       <c r="A2993">
-        <v>0.08270494405945501</v>
+        <v>0.082704944059455</v>
       </c>
       <c r="B2993">
         <v>-0.0837985159209369</v>
@@ -24303,7 +24303,7 @@
     </row>
     <row r="2994" spans="1:2">
       <c r="A2994">
-        <v>0.08172769400439052</v>
+        <v>0.08172769400439051</v>
       </c>
       <c r="B2994">
         <v>-0.09044533504110408</v>
@@ -24319,7 +24319,7 @@
     </row>
     <row r="2996" spans="1:2">
       <c r="A2996">
-        <v>0.08008318443296195</v>
+        <v>0.08008318443296196</v>
       </c>
       <c r="B2996">
         <v>-0.08397100324735574</v>
@@ -24383,7 +24383,7 @@
     </row>
     <row r="3004" spans="1:2">
       <c r="A3004">
-        <v>0.07491219927283661</v>
+        <v>0.07491219927283663</v>
       </c>
       <c r="B3004">
         <v>-0.0703333696496875</v>
@@ -24391,7 +24391,7 @@
     </row>
     <row r="3005" spans="1:2">
       <c r="A3005">
-        <v>0.07423380891706018</v>
+        <v>0.07423380891706016</v>
       </c>
       <c r="B3005">
         <v>-0.07548212866379034</v>
@@ -24415,7 +24415,7 @@
     </row>
     <row r="3008" spans="1:2">
       <c r="A3008">
-        <v>0.07232866882224148</v>
+        <v>0.07232866882224147</v>
       </c>
       <c r="B3008">
         <v>-0.072492973570633</v>
@@ -24423,7 +24423,7 @@
     </row>
     <row r="3009" spans="1:2">
       <c r="A3009">
-        <v>0.07118471319292127</v>
+        <v>0.07118471319292129</v>
       </c>
       <c r="B3009">
         <v>-0.06052142905881519</v>
@@ -24439,7 +24439,7 @@
     </row>
     <row r="3011" spans="1:2">
       <c r="A3011">
-        <v>0.06847193159589364</v>
+        <v>0.06847193159589363</v>
       </c>
       <c r="B3011">
         <v>-0.07449264167100367</v>
@@ -24471,7 +24471,7 @@
     </row>
     <row r="3015" spans="1:2">
       <c r="A3015">
-        <v>0.06534316870061918</v>
+        <v>0.06534316870061919</v>
       </c>
       <c r="B3015">
         <v>-0.06086761575469524</v>
@@ -24671,7 +24671,7 @@
     </row>
     <row r="3040" spans="1:2">
       <c r="A3040">
-        <v>0.05614840812558193</v>
+        <v>0.05614840812558194</v>
       </c>
       <c r="B3040">
         <v>-0.05038181639349038</v>
@@ -24687,7 +24687,7 @@
     </row>
     <row r="3042" spans="1:2">
       <c r="A3042">
-        <v>0.05624839759690342</v>
+        <v>0.05624839759690343</v>
       </c>
       <c r="B3042">
         <v>-0.04380560256241584</v>
@@ -24711,7 +24711,7 @@
     </row>
     <row r="3045" spans="1:2">
       <c r="A3045">
-        <v>0.0559243761683282</v>
+        <v>0.05592437616832819</v>
       </c>
       <c r="B3045">
         <v>-0.04703693774409956</v>
@@ -24775,7 +24775,7 @@
     </row>
     <row r="3053" spans="1:2">
       <c r="A3053">
-        <v>0.05537301596647465</v>
+        <v>0.05537301596647464</v>
       </c>
       <c r="B3053">
         <v>-0.04619719954121138</v>
@@ -24791,7 +24791,7 @@
     </row>
     <row r="3055" spans="1:2">
       <c r="A3055">
-        <v>0.0555926480064218</v>
+        <v>0.05559264800642181</v>
       </c>
       <c r="B3055">
         <v>-0.06669700255632405</v>
@@ -24855,7 +24855,7 @@
     </row>
     <row r="3063" spans="1:2">
       <c r="A3063">
-        <v>0.06794602724616097</v>
+        <v>0.06794602724616096</v>
       </c>
       <c r="B3063">
         <v>-0.03827610390040537</v>
@@ -24911,7 +24911,7 @@
     </row>
     <row r="3070" spans="1:2">
       <c r="A3070">
-        <v>0.07690440120315101</v>
+        <v>0.07690440120315099</v>
       </c>
       <c r="B3070">
         <v>-0.04450502583620786</v>
@@ -24927,7 +24927,7 @@
     </row>
     <row r="3072" spans="1:2">
       <c r="A3072">
-        <v>0.07850082188838528</v>
+        <v>0.07850082188838527</v>
       </c>
       <c r="B3072">
         <v>-0.03518617478719399</v>
@@ -24967,7 +24967,7 @@
     </row>
     <row r="3077" spans="1:2">
       <c r="A3077">
-        <v>0.07952075457677246</v>
+        <v>0.07952075457677245</v>
       </c>
       <c r="B3077">
         <v>-0.03107854849845104</v>
@@ -25007,7 +25007,7 @@
     </row>
     <row r="3082" spans="1:2">
       <c r="A3082">
-        <v>0.08037032274254891</v>
+        <v>0.08037032274254892</v>
       </c>
       <c r="B3082">
         <v>-0.06818631379464701</v>
@@ -25031,7 +25031,7 @@
     </row>
     <row r="3085" spans="1:2">
       <c r="A3085">
-        <v>0.0812946168460047</v>
+        <v>0.08129461684600471</v>
       </c>
       <c r="B3085">
         <v>-0.06969921832885362</v>
@@ -25983,7 +25983,7 @@
     </row>
     <row r="3204" spans="1:2">
       <c r="A3204">
-        <v>0.01305364902561595</v>
+        <v>0.01305364902561596</v>
       </c>
       <c r="B3204">
         <v>-0.004632106415412451</v>
@@ -26103,7 +26103,7 @@
     </row>
     <row r="3219" spans="1:2">
       <c r="A3219">
-        <v>-0.004046941023670597</v>
+        <v>-0.004046941023670598</v>
       </c>
       <c r="B3219">
         <v>-0.02185490488951736</v>
@@ -26111,7 +26111,7 @@
     </row>
     <row r="3220" spans="1:2">
       <c r="A3220">
-        <v>-0.004944941275611993</v>
+        <v>-0.004944941275611994</v>
       </c>
       <c r="B3220">
         <v>-0.01733461830676486</v>
@@ -26799,7 +26799,7 @@
     </row>
     <row r="3306" spans="1:2">
       <c r="A3306">
-        <v>-0.07303720897378746</v>
+        <v>-0.07303720897378747</v>
       </c>
       <c r="B3306">
         <v>0.04033753441580323</v>
@@ -26871,7 +26871,7 @@
     </row>
     <row r="3315" spans="1:2">
       <c r="A3315">
-        <v>-0.07077689073950294</v>
+        <v>-0.07077689073950295</v>
       </c>
       <c r="B3315">
         <v>0.07900763814139555</v>
@@ -26975,7 +26975,7 @@
     </row>
     <row r="3328" spans="1:2">
       <c r="A3328">
-        <v>-0.06508300137173914</v>
+        <v>-0.06508300137173913</v>
       </c>
       <c r="B3328">
         <v>0.0550719723034514</v>
@@ -26991,7 +26991,7 @@
     </row>
     <row r="3330" spans="1:2">
       <c r="A3330">
-        <v>-0.06444164972097466</v>
+        <v>-0.06444164972097467</v>
       </c>
       <c r="B3330">
         <v>0.0713530827836335</v>
@@ -26999,7 +26999,7 @@
     </row>
     <row r="3331" spans="1:2">
       <c r="A3331">
-        <v>-0.06345964939055954</v>
+        <v>-0.06345964939055955</v>
       </c>
       <c r="B3331">
         <v>0.07884676336813934</v>
@@ -27023,7 +27023,7 @@
     </row>
     <row r="3334" spans="1:2">
       <c r="A3334">
-        <v>-0.06224573697896817</v>
+        <v>-0.06224573697896816</v>
       </c>
       <c r="B3334">
         <v>0.06748325277419331</v>
@@ -27039,7 +27039,7 @@
     </row>
     <row r="3336" spans="1:2">
       <c r="A3336">
-        <v>-0.06094197582277321</v>
+        <v>-0.0609419758227732</v>
       </c>
       <c r="B3336">
         <v>0.05144775993482265</v>
@@ -27055,7 +27055,7 @@
     </row>
     <row r="3338" spans="1:2">
       <c r="A3338">
-        <v>-0.05902976381167271</v>
+        <v>-0.05902976381167272</v>
       </c>
       <c r="B3338">
         <v>0.06484605552613587</v>
@@ -27239,7 +27239,7 @@
     </row>
     <row r="3361" spans="1:2">
       <c r="A3361">
-        <v>-0.02649802262085358</v>
+        <v>-0.02649802262085359</v>
       </c>
       <c r="B3361">
         <v>0.03708515445315674</v>
@@ -27543,7 +27543,7 @@
     </row>
     <row r="3399" spans="1:2">
       <c r="A3399">
-        <v>0.02626953258858607</v>
+        <v>0.02626953258858606</v>
       </c>
       <c r="B3399">
         <v>0.0358337819545107</v>
@@ -27719,7 +27719,7 @@
     </row>
     <row r="3421" spans="1:2">
       <c r="A3421">
-        <v>0.05451959795977547</v>
+        <v>0.05451959795977548</v>
       </c>
       <c r="B3421">
         <v>-0.04106383791033075</v>
@@ -27743,7 +27743,7 @@
     </row>
     <row r="3424" spans="1:2">
       <c r="A3424">
-        <v>0.05414748236121666</v>
+        <v>0.05414748236121667</v>
       </c>
       <c r="B3424">
         <v>-0.0505358550397732</v>
@@ -27807,7 +27807,7 @@
     </row>
     <row r="3432" spans="1:2">
       <c r="A3432">
-        <v>0.05600625010941496</v>
+        <v>0.05600625010941495</v>
       </c>
       <c r="B3432">
         <v>-0.04305074103481754</v>
@@ -27847,7 +27847,7 @@
     </row>
     <row r="3437" spans="1:2">
       <c r="A3437">
-        <v>0.05411798569154846</v>
+        <v>0.05411798569154847</v>
       </c>
       <c r="B3437">
         <v>-0.06240888640036868</v>
@@ -27927,7 +27927,7 @@
     </row>
     <row r="3447" spans="1:2">
       <c r="A3447">
-        <v>0.05229882965290555</v>
+        <v>0.05229882965290556</v>
       </c>
       <c r="B3447">
         <v>-0.04982363623692354</v>
@@ -27943,7 +27943,7 @@
     </row>
     <row r="3449" spans="1:2">
       <c r="A3449">
-        <v>0.05137929619302084</v>
+        <v>0.05137929619302083</v>
       </c>
       <c r="B3449">
         <v>-0.0371023256476386</v>
@@ -28047,7 +28047,7 @@
     </row>
     <row r="3462" spans="1:2">
       <c r="A3462">
-        <v>0.04234872278703454</v>
+        <v>0.04234872278703455</v>
       </c>
       <c r="B3462">
         <v>-0.05086786113807218</v>
@@ -28263,7 +28263,7 @@
     </row>
     <row r="3489" spans="1:2">
       <c r="A3489">
-        <v>0.03431701441435629</v>
+        <v>0.03431701441435626</v>
       </c>
       <c r="B3489">
         <v>-0.03404921454415977</v>
@@ -28863,7 +28863,7 @@
     </row>
     <row r="3564" spans="1:2">
       <c r="A3564">
-        <v>0.02911975447907922</v>
+        <v>0.02911975447907921</v>
       </c>
       <c r="B3564">
         <v>-0.02648016888029936</v>
@@ -29183,7 +29183,7 @@
     </row>
     <row r="3604" spans="1:2">
       <c r="A3604">
-        <v>0.02860351542590166</v>
+        <v>0.02860351542590167</v>
       </c>
       <c r="B3604">
         <v>-0.0151601798274088</v>
@@ -29767,7 +29767,7 @@
     </row>
     <row r="3677" spans="1:2">
       <c r="A3677">
-        <v>0.04828227377724764</v>
+        <v>0.04828227377724763</v>
       </c>
       <c r="B3677">
         <v>-0.03752997324382079</v>
@@ -29823,7 +29823,7 @@
     </row>
     <row r="3684" spans="1:2">
       <c r="A3684">
-        <v>0.04935990824933532</v>
+        <v>0.04935990824933533</v>
       </c>
       <c r="B3684">
         <v>-0.05053040709084478</v>
@@ -29839,7 +29839,7 @@
     </row>
     <row r="3686" spans="1:2">
       <c r="A3686">
-        <v>0.04925391399068492</v>
+        <v>0.04925391399068493</v>
       </c>
       <c r="B3686">
         <v>-0.07049338369721703</v>
@@ -29863,7 +29863,7 @@
     </row>
     <row r="3689" spans="1:2">
       <c r="A3689">
-        <v>0.05174911332900352</v>
+        <v>0.05174911332900353</v>
       </c>
       <c r="B3689">
         <v>-0.07203914072265061</v>
@@ -29887,7 +29887,7 @@
     </row>
     <row r="3692" spans="1:2">
       <c r="A3692">
-        <v>0.05497510886858442</v>
+        <v>0.05497510886858443</v>
       </c>
       <c r="B3692">
         <v>-0.04831194127588034</v>
@@ -29911,7 +29911,7 @@
     </row>
     <row r="3695" spans="1:2">
       <c r="A3695">
-        <v>0.0597706140188851</v>
+        <v>0.05977061401888511</v>
       </c>
       <c r="B3695">
         <v>-0.04233488109250949</v>
@@ -29943,7 +29943,7 @@
     </row>
     <row r="3699" spans="1:2">
       <c r="A3699">
-        <v>0.0663476927009396</v>
+        <v>0.06634769270093958</v>
       </c>
       <c r="B3699">
         <v>-0.0435684845196187</v>
@@ -29951,7 +29951,7 @@
     </row>
     <row r="3700" spans="1:2">
       <c r="A3700">
-        <v>0.06735236654961133</v>
+        <v>0.06735236654961134</v>
       </c>
       <c r="B3700">
         <v>-0.05086715498035144</v>
@@ -29975,7 +29975,7 @@
     </row>
     <row r="3703" spans="1:2">
       <c r="A3703">
-        <v>0.06961194482732314</v>
+        <v>0.06961194482732312</v>
       </c>
       <c r="B3703">
         <v>-0.05341481873096932</v>
@@ -29983,7 +29983,7 @@
     </row>
     <row r="3704" spans="1:2">
       <c r="A3704">
-        <v>0.07088107016573433</v>
+        <v>0.07088107016573432</v>
       </c>
       <c r="B3704">
         <v>-0.0369381888850171</v>
@@ -29991,7 +29991,7 @@
     </row>
     <row r="3705" spans="1:2">
       <c r="A3705">
-        <v>0.07166658776839621</v>
+        <v>0.0716665877683962</v>
       </c>
       <c r="B3705">
         <v>-0.04684524011137547</v>
@@ -29999,7 +29999,7 @@
     </row>
     <row r="3706" spans="1:2">
       <c r="A3706">
-        <v>0.07202242653146806</v>
+        <v>0.07202242653146805</v>
       </c>
       <c r="B3706">
         <v>-0.05633939153096001</v>
@@ -30007,7 +30007,7 @@
     </row>
     <row r="3707" spans="1:2">
       <c r="A3707">
-        <v>0.07351541084569974</v>
+        <v>0.07351541084569975</v>
       </c>
       <c r="B3707">
         <v>-0.03934192031823347</v>
@@ -30095,7 +30095,7 @@
     </row>
     <row r="3718" spans="1:2">
       <c r="A3718">
-        <v>0.07778845606416998</v>
+        <v>0.07778845606416999</v>
       </c>
       <c r="B3718">
         <v>-0.04918490280302024</v>
@@ -30207,7 +30207,7 @@
     </row>
     <row r="3732" spans="1:2">
       <c r="A3732">
-        <v>0.08524319782346378</v>
+        <v>0.08524319782346376</v>
       </c>
       <c r="B3732">
         <v>-0.0756921909233732</v>
@@ -30303,7 +30303,7 @@
     </row>
     <row r="3744" spans="1:2">
       <c r="A3744">
-        <v>0.08630436628410171</v>
+        <v>0.08630436628410172</v>
       </c>
       <c r="B3744">
         <v>-0.08318679830625708</v>
@@ -30335,7 +30335,7 @@
     </row>
     <row r="3748" spans="1:2">
       <c r="A3748">
-        <v>0.08334180362463538</v>
+        <v>0.08334180362463536</v>
       </c>
       <c r="B3748">
         <v>-0.101754258210434</v>
@@ -30367,7 +30367,7 @@
     </row>
     <row r="3752" spans="1:2">
       <c r="A3752">
-        <v>0.08402137380815336</v>
+        <v>0.08402137380815337</v>
       </c>
       <c r="B3752">
         <v>-0.07356525322882668</v>
@@ -30415,7 +30415,7 @@
     </row>
     <row r="3758" spans="1:2">
       <c r="A3758">
-        <v>0.08638160345229541</v>
+        <v>0.08638160345229542</v>
       </c>
       <c r="B3758">
         <v>-0.06332390470238991</v>
@@ -30431,7 +30431,7 @@
     </row>
     <row r="3760" spans="1:2">
       <c r="A3760">
-        <v>0.08695754973208411</v>
+        <v>0.0869575497320841</v>
       </c>
       <c r="B3760">
         <v>-0.08543256914559105</v>
@@ -30455,7 +30455,7 @@
     </row>
     <row r="3763" spans="1:2">
       <c r="A3763">
-        <v>0.0862535949410341</v>
+        <v>0.08625359494103409</v>
       </c>
       <c r="B3763">
         <v>-0.0846723928153903</v>
@@ -30471,7 +30471,7 @@
     </row>
     <row r="3765" spans="1:2">
       <c r="A3765">
-        <v>0.08624022712911653</v>
+        <v>0.08624022712911651</v>
       </c>
       <c r="B3765">
         <v>-0.0712073179247259</v>
@@ -30543,7 +30543,7 @@
     </row>
     <row r="3774" spans="1:2">
       <c r="A3774">
-        <v>0.0781745866764274</v>
+        <v>0.07817458667642739</v>
       </c>
       <c r="B3774">
         <v>-0.07481082525394855</v>
@@ -30567,7 +30567,7 @@
     </row>
     <row r="3777" spans="1:2">
       <c r="A3777">
-        <v>0.07566278185423735</v>
+        <v>0.07566278185423733</v>
       </c>
       <c r="B3777">
         <v>-0.07209490495096471</v>
@@ -30575,7 +30575,7 @@
     </row>
     <row r="3778" spans="1:2">
       <c r="A3778">
-        <v>0.07539837898417813</v>
+        <v>0.07539837898417814</v>
       </c>
       <c r="B3778">
         <v>-0.08110187922560064</v>
@@ -30599,7 +30599,7 @@
     </row>
     <row r="3781" spans="1:2">
       <c r="A3781">
-        <v>0.07365119652949866</v>
+        <v>0.07365119652949864</v>
       </c>
       <c r="B3781">
         <v>-0.07476141717495022</v>
@@ -30623,7 +30623,7 @@
     </row>
     <row r="3784" spans="1:2">
       <c r="A3784">
-        <v>0.07165234213743363</v>
+        <v>0.07165234213743361</v>
       </c>
       <c r="B3784">
         <v>-0.06822263938401507</v>
@@ -30695,7 +30695,7 @@
     </row>
     <row r="3793" spans="1:2">
       <c r="A3793">
-        <v>0.06687760147641934</v>
+        <v>0.06687760147641936</v>
       </c>
       <c r="B3793">
         <v>-0.07288539929463145</v>
@@ -30727,7 +30727,7 @@
     </row>
     <row r="3797" spans="1:2">
       <c r="A3797">
-        <v>0.0617361842410336</v>
+        <v>0.06173618424103361</v>
       </c>
       <c r="B3797">
         <v>-0.05384009444001414</v>
@@ -30759,7 +30759,7 @@
     </row>
     <row r="3801" spans="1:2">
       <c r="A3801">
-        <v>0.05416105514218851</v>
+        <v>0.0541610551421885</v>
       </c>
       <c r="B3801">
         <v>-0.0664919582175072</v>
@@ -30767,7 +30767,7 @@
     </row>
     <row r="3802" spans="1:2">
       <c r="A3802">
-        <v>0.05241060306737222</v>
+        <v>0.05241060306737223</v>
       </c>
       <c r="B3802">
         <v>-0.07504645303528479</v>
@@ -30775,7 +30775,7 @@
     </row>
     <row r="3803" spans="1:2">
       <c r="A3803">
-        <v>0.05073478062866663</v>
+        <v>0.05073478062866664</v>
       </c>
       <c r="B3803">
         <v>-0.08211426934729671</v>
@@ -30831,7 +30831,7 @@
     </row>
     <row r="3810" spans="1:2">
       <c r="A3810">
-        <v>0.04894012570420581</v>
+        <v>0.0489401257042058</v>
       </c>
       <c r="B3810">
         <v>-0.03989291955190399</v>
@@ -30879,7 +30879,7 @@
     </row>
     <row r="3816" spans="1:2">
       <c r="A3816">
-        <v>0.04884111278149972</v>
+        <v>0.04884111278149973</v>
       </c>
       <c r="B3816">
         <v>-0.04222043381142981</v>
@@ -30911,7 +30911,7 @@
     </row>
     <row r="3820" spans="1:2">
       <c r="A3820">
-        <v>0.04515391348277778</v>
+        <v>0.04515391348277779</v>
       </c>
       <c r="B3820">
         <v>-0.02493457064812166</v>
@@ -30935,7 +30935,7 @@
     </row>
     <row r="3823" spans="1:2">
       <c r="A3823">
-        <v>0.04216460446641469</v>
+        <v>0.0421646044664147</v>
       </c>
       <c r="B3823">
         <v>-0.04668904758066317</v>
@@ -30999,7 +30999,7 @@
     </row>
     <row r="3831" spans="1:2">
       <c r="A3831">
-        <v>0.03540997037175579</v>
+        <v>0.0354099703717558</v>
       </c>
       <c r="B3831">
         <v>-0.03589190214429383</v>
@@ -31015,7 +31015,7 @@
     </row>
     <row r="3833" spans="1:2">
       <c r="A3833">
-        <v>0.03474372482100843</v>
+        <v>0.03474372482100844</v>
       </c>
       <c r="B3833">
         <v>-0.04485720382382574</v>
@@ -31087,7 +31087,7 @@
     </row>
     <row r="3842" spans="1:2">
       <c r="A3842">
-        <v>0.03745614618965327</v>
+        <v>0.03745614618965328</v>
       </c>
       <c r="B3842">
         <v>-0.02060668003670951</v>
@@ -31231,7 +31231,7 @@
     </row>
     <row r="3860" spans="1:2">
       <c r="A3860">
-        <v>0.03130417247947151</v>
+        <v>0.0313041724794715</v>
       </c>
       <c r="B3860">
         <v>-0.03193155818990734</v>
@@ -31319,7 +31319,7 @@
     </row>
     <row r="3871" spans="1:2">
       <c r="A3871">
-        <v>0.03237108390982109</v>
+        <v>0.0323710839098211</v>
       </c>
       <c r="B3871">
         <v>-0.01495101572831725</v>
@@ -31327,7 +31327,7 @@
     </row>
     <row r="3872" spans="1:2">
       <c r="A3872">
-        <v>0.03234307158822992</v>
+        <v>0.03234307158822993</v>
       </c>
       <c r="B3872">
         <v>-0.01885506893595146</v>
@@ -31375,7 +31375,7 @@
     </row>
     <row r="3878" spans="1:2">
       <c r="A3878">
-        <v>0.0327320725067929</v>
+        <v>0.03273207250679289</v>
       </c>
       <c r="B3878">
         <v>-0.01561491973940621</v>
@@ -31607,7 +31607,7 @@
     </row>
     <row r="3907" spans="1:2">
       <c r="A3907">
-        <v>0.02498137999505096</v>
+        <v>0.02498137999505097</v>
       </c>
       <c r="B3907">
         <v>-0.0185246677225277</v>
@@ -31871,7 +31871,7 @@
     </row>
     <row r="3940" spans="1:2">
       <c r="A3940">
-        <v>0.01372329117978234</v>
+        <v>0.01372329117978235</v>
       </c>
       <c r="B3940">
         <v>-0.01689551135274581</v>
@@ -31983,7 +31983,7 @@
     </row>
     <row r="3954" spans="1:2">
       <c r="A3954">
-        <v>0.005520203330058012</v>
+        <v>0.005520203330058013</v>
       </c>
       <c r="B3954">
         <v>-0.01714832623897466</v>
@@ -32007,7 +32007,7 @@
     </row>
     <row r="3957" spans="1:2">
       <c r="A3957">
-        <v>0.0029717802077272</v>
+        <v>0.002971780207727201</v>
       </c>
       <c r="B3957">
         <v>-0.01752531274546865</v>
@@ -32063,7 +32063,7 @@
     </row>
     <row r="3964" spans="1:2">
       <c r="A3964">
-        <v>-0.0009363771537592542</v>
+        <v>-0.0009363771537592541</v>
       </c>
       <c r="B3964">
         <v>-0.01165636802237158</v>
@@ -32095,7 +32095,7 @@
     </row>
     <row r="3968" spans="1:2">
       <c r="A3968">
-        <v>-0.003205392274181646</v>
+        <v>-0.003205392274181645</v>
       </c>
       <c r="B3968">
         <v>-0.005572877338098525</v>
@@ -32359,7 +32359,7 @@
     </row>
     <row r="4001" spans="1:2">
       <c r="A4001">
-        <v>-0.03060876936156662</v>
+        <v>-0.03060876936156661</v>
       </c>
       <c r="B4001">
         <v>0.02889797591633458</v>
@@ -32367,7 +32367,7 @@
     </row>
     <row r="4002" spans="1:2">
       <c r="A4002">
-        <v>-0.03033054456875023</v>
+        <v>-0.03033054456875022</v>
       </c>
       <c r="B4002">
         <v>0.02536195549663844</v>
@@ -32407,7 +32407,7 @@
     </row>
     <row r="4007" spans="1:2">
       <c r="A4007">
-        <v>-0.03393073999645359</v>
+        <v>-0.03393073999645358</v>
       </c>
       <c r="B4007">
         <v>0.02707159851280494</v>
@@ -32703,7 +32703,7 @@
     </row>
     <row r="4044" spans="1:2">
       <c r="A4044">
-        <v>-0.07328111360057422</v>
+        <v>-0.07328111360057421</v>
       </c>
       <c r="B4044">
         <v>0.05159402040755046</v>
@@ -32719,7 +32719,7 @@
     </row>
     <row r="4046" spans="1:2">
       <c r="A4046">
-        <v>-0.07419293617997547</v>
+        <v>-0.07419293617997548</v>
       </c>
       <c r="B4046">
         <v>0.05181335382118135</v>
@@ -32751,7 +32751,7 @@
     </row>
     <row r="4050" spans="1:2">
       <c r="A4050">
-        <v>-0.07717298964414195</v>
+        <v>-0.07717298964414193</v>
       </c>
       <c r="B4050">
         <v>0.06786884572594065</v>
@@ -32791,7 +32791,7 @@
     </row>
     <row r="4055" spans="1:2">
       <c r="A4055">
-        <v>-0.08104693015889544</v>
+        <v>-0.08104693015889546</v>
       </c>
       <c r="B4055">
         <v>0.07297801632094636</v>
@@ -32839,7 +32839,7 @@
     </row>
     <row r="4061" spans="1:2">
       <c r="A4061">
-        <v>-0.08668643754113252</v>
+        <v>-0.0866864375411325</v>
       </c>
       <c r="B4061">
         <v>0.06413199110097745</v>
@@ -32871,7 +32871,7 @@
     </row>
     <row r="4065" spans="1:2">
       <c r="A4065">
-        <v>-0.08643074427074843</v>
+        <v>-0.08643074427074841</v>
       </c>
       <c r="B4065">
         <v>0.08518157572449114</v>
@@ -32919,7 +32919,7 @@
     </row>
     <row r="4071" spans="1:2">
       <c r="A4071">
-        <v>-0.09072834456487817</v>
+        <v>-0.09072834456487819</v>
       </c>
       <c r="B4071">
         <v>0.07190272020922484</v>
@@ -32959,7 +32959,7 @@
     </row>
     <row r="4076" spans="1:2">
       <c r="A4076">
-        <v>-0.09610799467499422</v>
+        <v>-0.0961079946749942</v>
       </c>
       <c r="B4076">
         <v>0.06267212761590768</v>
@@ -33007,7 +33007,7 @@
     </row>
     <row r="4082" spans="1:2">
       <c r="A4082">
-        <v>-0.09594611218684702</v>
+        <v>-0.09594611218684701</v>
       </c>
       <c r="B4082">
         <v>0.07368519496494752</v>
@@ -33031,7 +33031,7 @@
     </row>
     <row r="4085" spans="1:2">
       <c r="A4085">
-        <v>-0.09236892864818978</v>
+        <v>-0.0923689286481898</v>
       </c>
       <c r="B4085">
         <v>0.08539856250549338</v>
@@ -33063,7 +33063,7 @@
     </row>
     <row r="4089" spans="1:2">
       <c r="A4089">
-        <v>-0.08855429166697483</v>
+        <v>-0.08855429166697484</v>
       </c>
       <c r="B4089">
         <v>0.08514961260557286</v>
@@ -33079,7 +33079,7 @@
     </row>
     <row r="4091" spans="1:2">
       <c r="A4091">
-        <v>-0.08774688363329758</v>
+        <v>-0.08774688363329756</v>
       </c>
       <c r="B4091">
         <v>0.08050998652287156</v>
@@ -33103,7 +33103,7 @@
     </row>
     <row r="4094" spans="1:2">
       <c r="A4094">
-        <v>-0.08648095613027287</v>
+        <v>-0.08648095613027289</v>
       </c>
       <c r="B4094">
         <v>0.08093874609243645</v>
@@ -33135,7 +33135,7 @@
     </row>
     <row r="4098" spans="1:2">
       <c r="A4098">
-        <v>-0.08318809364255471</v>
+        <v>-0.08318809364255469</v>
       </c>
       <c r="B4098">
         <v>0.0869145631580448</v>
@@ -33143,7 +33143,7 @@
     </row>
     <row r="4099" spans="1:2">
       <c r="A4099">
-        <v>-0.08329190120607904</v>
+        <v>-0.08329190120607906</v>
       </c>
       <c r="B4099">
         <v>0.07559862290629216</v>
@@ -33183,7 +33183,7 @@
     </row>
     <row r="4104" spans="1:2">
       <c r="A4104">
-        <v>-0.08193738654841123</v>
+        <v>-0.08193738654841122</v>
       </c>
       <c r="B4104">
         <v>0.06468224736073491</v>
@@ -33191,7 +33191,7 @@
     </row>
     <row r="4105" spans="1:2">
       <c r="A4105">
-        <v>-0.08094289265498884</v>
+        <v>-0.08094289265498883</v>
       </c>
       <c r="B4105">
         <v>0.06987244835936313</v>
@@ -33215,7 +33215,7 @@
     </row>
     <row r="4108" spans="1:2">
       <c r="A4108">
-        <v>-0.07879080777108702</v>
+        <v>-0.078790807771087</v>
       </c>
       <c r="B4108">
         <v>0.06932320709205264</v>
@@ -33295,7 +33295,7 @@
     </row>
     <row r="4118" spans="1:2">
       <c r="A4118">
-        <v>-0.07025658793775973</v>
+        <v>-0.07025658793775971</v>
       </c>
       <c r="B4118">
         <v>0.06672307013939083</v>
@@ -33319,7 +33319,7 @@
     </row>
     <row r="4121" spans="1:2">
       <c r="A4121">
-        <v>-0.06882312188971602</v>
+        <v>-0.06882312188971604</v>
       </c>
       <c r="B4121">
         <v>0.05366352912249717</v>
@@ -33327,7 +33327,7 @@
     </row>
     <row r="4122" spans="1:2">
       <c r="A4122">
-        <v>-0.06859271366329502</v>
+        <v>-0.068592713663295</v>
       </c>
       <c r="B4122">
         <v>0.05733723978226646</v>
@@ -33351,7 +33351,7 @@
     </row>
     <row r="4125" spans="1:2">
       <c r="A4125">
-        <v>-0.06551438576398422</v>
+        <v>-0.06551438576398423</v>
       </c>
       <c r="B4125">
         <v>0.06052827588898335</v>
@@ -33367,7 +33367,7 @@
     </row>
     <row r="4127" spans="1:2">
       <c r="A4127">
-        <v>-0.06333725193181669</v>
+        <v>-0.0633372519318167</v>
       </c>
       <c r="B4127">
         <v>0.0591082239679297</v>
@@ -33399,7 +33399,7 @@
     </row>
     <row r="4131" spans="1:2">
       <c r="A4131">
-        <v>-0.06037538013322554</v>
+        <v>-0.06037538013322553</v>
       </c>
       <c r="B4131">
         <v>0.05211802297212742</v>
@@ -33407,7 +33407,7 @@
     </row>
     <row r="4132" spans="1:2">
       <c r="A4132">
-        <v>-0.0600309795547742</v>
+        <v>-0.06003097955477421</v>
       </c>
       <c r="B4132">
         <v>0.05544785077185477</v>
@@ -33423,7 +33423,7 @@
     </row>
     <row r="4134" spans="1:2">
       <c r="A4134">
-        <v>-0.05921473397479233</v>
+        <v>-0.05921473397479234</v>
       </c>
       <c r="B4134">
         <v>0.0504890997097478</v>
@@ -33431,7 +33431,7 @@
     </row>
     <row r="4135" spans="1:2">
       <c r="A4135">
-        <v>-0.0583137292094387</v>
+        <v>-0.05831372920943871</v>
       </c>
       <c r="B4135">
         <v>0.05468655948836165</v>
@@ -33455,7 +33455,7 @@
     </row>
     <row r="4138" spans="1:2">
       <c r="A4138">
-        <v>-0.05573565242191935</v>
+        <v>-0.05573565242191936</v>
       </c>
       <c r="B4138">
         <v>0.05581822793762825</v>
@@ -33511,7 +33511,7 @@
     </row>
     <row r="4145" spans="1:2">
       <c r="A4145">
-        <v>-0.05293996746658951</v>
+        <v>-0.0529399674665895</v>
       </c>
       <c r="B4145">
         <v>0.04546799360214582</v>
@@ -33527,7 +33527,7 @@
     </row>
     <row r="4147" spans="1:2">
       <c r="A4147">
-        <v>-0.05252387563617332</v>
+        <v>-0.05252387563617331</v>
       </c>
       <c r="B4147">
         <v>0.04080045259048859</v>
@@ -33599,7 +33599,7 @@
     </row>
     <row r="4156" spans="1:2">
       <c r="A4156">
-        <v>-0.0476464722842064</v>
+        <v>-0.04764647228420639</v>
       </c>
       <c r="B4156">
         <v>0.03614753260483905</v>
@@ -33647,7 +33647,7 @@
     </row>
     <row r="4162" spans="1:2">
       <c r="A4162">
-        <v>-0.04238753341403766</v>
+        <v>-0.04238753341403765</v>
       </c>
       <c r="B4162">
         <v>0.04426204194804129</v>
@@ -33663,7 +33663,7 @@
     </row>
     <row r="4164" spans="1:2">
       <c r="A4164">
-        <v>-0.04085055615501631</v>
+        <v>-0.0408505561550163</v>
       </c>
       <c r="B4164">
         <v>0.04302816767516404</v>
@@ -33671,7 +33671,7 @@
     </row>
     <row r="4165" spans="1:2">
       <c r="A4165">
-        <v>-0.04021038552772825</v>
+        <v>-0.04021038552772824</v>
       </c>
       <c r="B4165">
         <v>0.04574597893185661</v>
@@ -33703,7 +33703,7 @@
     </row>
     <row r="4169" spans="1:2">
       <c r="A4169">
-        <v>-0.03709061535248388</v>
+        <v>-0.03709061535248389</v>
       </c>
       <c r="B4169">
         <v>0.04237138718993982</v>
@@ -33711,7 +33711,7 @@
     </row>
     <row r="4170" spans="1:2">
       <c r="A4170">
-        <v>-0.0362193739205579</v>
+        <v>-0.03621937392055791</v>
       </c>
       <c r="B4170">
         <v>0.04503935874502663</v>
@@ -33839,7 +33839,7 @@
     </row>
     <row r="4186" spans="1:2">
       <c r="A4186">
-        <v>-0.0233557510206842</v>
+        <v>-0.02335575102068421</v>
       </c>
       <c r="B4186">
         <v>0.02885318216450816</v>
@@ -33999,7 +33999,7 @@
     </row>
     <row r="4206" spans="1:2">
       <c r="A4206">
-        <v>-0.01361427368442416</v>
+        <v>-0.01361427368442415</v>
       </c>
       <c r="B4206">
         <v>0.0157208016528303</v>
@@ -34015,7 +34015,7 @@
     </row>
     <row r="4208" spans="1:2">
       <c r="A4208">
-        <v>-0.01388379835762193</v>
+        <v>-0.01388379835762194</v>
       </c>
       <c r="B4208">
         <v>0.01417077114615406</v>
@@ -34087,7 +34087,7 @@
     </row>
     <row r="4217" spans="1:2">
       <c r="A4217">
-        <v>-0.007454145754608231</v>
+        <v>-0.007454145754608232</v>
       </c>
       <c r="B4217">
         <v>0.01845189546132886</v>
@@ -34111,7 +34111,7 @@
     </row>
     <row r="4220" spans="1:2">
       <c r="A4220">
-        <v>-0.005894547961371684</v>
+        <v>-0.005894547961371683</v>
       </c>
       <c r="B4220">
         <v>0.01820491638605226</v>
@@ -34135,7 +34135,7 @@
     </row>
     <row r="4223" spans="1:2">
       <c r="A4223">
-        <v>-0.005655397361752966</v>
+        <v>-0.005655397361752965</v>
       </c>
       <c r="B4223">
         <v>0.01413404825056119</v>
@@ -34215,7 +34215,7 @@
     </row>
     <row r="4233" spans="1:2">
       <c r="A4233">
-        <v>-0.007071769015746262</v>
+        <v>-0.007071769015746263</v>
       </c>
       <c r="B4233">
         <v>-0.001747082497242758</v>
@@ -34271,7 +34271,7 @@
     </row>
     <row r="4240" spans="1:2">
       <c r="A4240">
-        <v>0.0009033687714550293</v>
+        <v>0.0009033687714550292</v>
       </c>
       <c r="B4240">
         <v>0.01209442563476593</v>
@@ -34279,7 +34279,7 @@
     </row>
     <row r="4241" spans="1:2">
       <c r="A4241">
-        <v>0.001898145803638429</v>
+        <v>0.001898145803638428</v>
       </c>
       <c r="B4241">
         <v>0.01441555525084937</v>
@@ -34311,7 +34311,7 @@
     </row>
     <row r="4245" spans="1:2">
       <c r="A4245">
-        <v>0.004634299052685474</v>
+        <v>0.004634299052685475</v>
       </c>
       <c r="B4245">
         <v>0.01333694665299401</v>
@@ -34343,7 +34343,7 @@
     </row>
     <row r="4249" spans="1:2">
       <c r="A4249">
-        <v>0.006386387356306242</v>
+        <v>0.006386387356306241</v>
       </c>
       <c r="B4249">
         <v>0.01026569332519589</v>
@@ -34359,7 +34359,7 @@
     </row>
     <row r="4251" spans="1:2">
       <c r="A4251">
-        <v>0.007076136415981656</v>
+        <v>0.007076136415981657</v>
       </c>
       <c r="B4251">
         <v>0.008155174407752597</v>
@@ -34391,7 +34391,7 @@
     </row>
     <row r="4255" spans="1:2">
       <c r="A4255">
-        <v>0.008474331724736363</v>
+        <v>0.008474331724736365</v>
       </c>
       <c r="B4255">
         <v>0.000257153533095078</v>
@@ -34719,7 +34719,7 @@
     </row>
     <row r="4296" spans="1:2">
       <c r="A4296">
-        <v>0.02228104064145004</v>
+        <v>0.02228104064145003</v>
       </c>
       <c r="B4296">
         <v>-0.008696933991976685</v>
@@ -34799,7 +34799,7 @@
     </row>
     <row r="4306" spans="1:2">
       <c r="A4306">
-        <v>0.03183145534915119</v>
+        <v>0.0318314553491512</v>
       </c>
       <c r="B4306">
         <v>-0.006902103704527818</v>
@@ -34807,7 +34807,7 @@
     </row>
     <row r="4307" spans="1:2">
       <c r="A4307">
-        <v>0.03286352705404054</v>
+        <v>0.03286352705404053</v>
       </c>
       <c r="B4307">
         <v>-0.0117027069597615</v>
@@ -34823,7 +34823,7 @@
     </row>
     <row r="4309" spans="1:2">
       <c r="A4309">
-        <v>0.03484580960160965</v>
+        <v>0.03484580960160964</v>
       </c>
       <c r="B4309">
         <v>-0.01066193066590682</v>
@@ -35039,7 +35039,7 @@
     </row>
     <row r="4336" spans="1:2">
       <c r="A4336">
-        <v>0.05615770794492513</v>
+        <v>0.05615770794492512</v>
       </c>
       <c r="B4336">
         <v>-0.046727441858045</v>
@@ -35047,7 +35047,7 @@
     </row>
     <row r="4337" spans="1:2">
       <c r="A4337">
-        <v>0.05826582515122684</v>
+        <v>0.05826582515122685</v>
       </c>
       <c r="B4337">
         <v>-0.03563832938378564</v>
@@ -35191,7 +35191,7 @@
     </row>
     <row r="4355" spans="1:2">
       <c r="A4355">
-        <v>0.07864270612265639</v>
+        <v>0.07864270612265641</v>
       </c>
       <c r="B4355">
         <v>-0.05241430976961903</v>
@@ -35207,7 +35207,7 @@
     </row>
     <row r="4357" spans="1:2">
       <c r="A4357">
-        <v>0.07990694133642837</v>
+        <v>0.07990694133642835</v>
       </c>
       <c r="B4357">
         <v>-0.05213158744477253</v>
@@ -35215,7 +35215,7 @@
     </row>
     <row r="4358" spans="1:2">
       <c r="A4358">
-        <v>0.08013491022235482</v>
+        <v>0.08013491022235483</v>
       </c>
       <c r="B4358">
         <v>-0.06347557372996171</v>
@@ -35223,7 +35223,7 @@
     </row>
     <row r="4359" spans="1:2">
       <c r="A4359">
-        <v>0.08022859648866891</v>
+        <v>0.08022859648866892</v>
       </c>
       <c r="B4359">
         <v>-0.05309606607229833</v>
@@ -35279,7 +35279,7 @@
     </row>
     <row r="4366" spans="1:2">
       <c r="A4366">
-        <v>0.08521605132434572</v>
+        <v>0.0852160513243457</v>
       </c>
       <c r="B4366">
         <v>-0.08041057801482498</v>
@@ -35319,7 +35319,7 @@
     </row>
     <row r="4371" spans="1:2">
       <c r="A4371">
-        <v>0.08439127154421326</v>
+        <v>0.08439127154421328</v>
       </c>
       <c r="B4371">
         <v>-0.09556380180353763</v>
@@ -35335,7 +35335,7 @@
     </row>
     <row r="4373" spans="1:2">
       <c r="A4373">
-        <v>0.08463345469060703</v>
+        <v>0.08463345469060704</v>
       </c>
       <c r="B4373">
         <v>-0.09449284906260536</v>
@@ -35367,7 +35367,7 @@
     </row>
     <row r="4377" spans="1:2">
       <c r="A4377">
-        <v>0.08788807408466384</v>
+        <v>0.08788807408466386</v>
       </c>
       <c r="B4377">
         <v>-0.08067952370435716</v>
@@ -35383,7 +35383,7 @@
     </row>
     <row r="4379" spans="1:2">
       <c r="A4379">
-        <v>0.09061371868169014</v>
+        <v>0.09061371868169016</v>
       </c>
       <c r="B4379">
         <v>-0.09741346434696529</v>
@@ -35391,7 +35391,7 @@
     </row>
     <row r="4380" spans="1:2">
       <c r="A4380">
-        <v>0.09243452337696054</v>
+        <v>0.09243452337696055</v>
       </c>
       <c r="B4380">
         <v>-0.07867511917450987</v>
@@ -35399,7 +35399,7 @@
     </row>
     <row r="4381" spans="1:2">
       <c r="A4381">
-        <v>0.09366589982600862</v>
+        <v>0.09366589982600861</v>
       </c>
       <c r="B4381">
         <v>-0.08789346371006079</v>
@@ -35407,7 +35407,7 @@
     </row>
     <row r="4382" spans="1:2">
       <c r="A4382">
-        <v>0.09456916472077642</v>
+        <v>0.09456916472077624</v>
       </c>
       <c r="B4382">
         <v>-0.06884711086556861</v>
@@ -35423,7 +35423,7 @@
     </row>
     <row r="4384" spans="1:2">
       <c r="A4384">
-        <v>0.09645431461053049</v>
+        <v>0.09645431461053047</v>
       </c>
       <c r="B4384">
         <v>-0.09009539917231901</v>
@@ -35431,7 +35431,7 @@
     </row>
     <row r="4385" spans="1:2">
       <c r="A4385">
-        <v>0.09690777389790335</v>
+        <v>0.09690777389790337</v>
       </c>
       <c r="B4385">
         <v>-0.07307243802125996</v>
@@ -35455,7 +35455,7 @@
     </row>
     <row r="4388" spans="1:2">
       <c r="A4388">
-        <v>0.09729387414778334</v>
+        <v>0.09729387414778336</v>
       </c>
       <c r="B4388">
         <v>-0.08207244783858769</v>
@@ -35495,7 +35495,7 @@
     </row>
     <row r="4393" spans="1:2">
       <c r="A4393">
-        <v>0.09850519454269355</v>
+        <v>0.09850519454269356</v>
       </c>
       <c r="B4393">
         <v>-0.08365352431916406</v>
@@ -35527,7 +35527,7 @@
     </row>
     <row r="4397" spans="1:2">
       <c r="A4397">
-        <v>0.09810370561320317</v>
+        <v>0.09810370561320315</v>
       </c>
       <c r="B4397">
         <v>-0.1069038319469322</v>
@@ -35535,7 +35535,7 @@
     </row>
     <row r="4398" spans="1:2">
       <c r="A4398">
-        <v>0.09803281663892613</v>
+        <v>0.09803281663892614</v>
       </c>
       <c r="B4398">
         <v>-0.08596838402255935</v>
@@ -35567,7 +35567,7 @@
     </row>
     <row r="4402" spans="1:2">
       <c r="A4402">
-        <v>0.1034631761072246</v>
+        <v>0.1034631761072245</v>
       </c>
       <c r="B4402">
         <v>-0.09530225313599949</v>
@@ -35607,7 +35607,7 @@
     </row>
     <row r="4407" spans="1:2">
       <c r="A4407">
-        <v>0.1093461770857868</v>
+        <v>0.1093461770857869</v>
       </c>
       <c r="B4407">
         <v>-0.08133801476001334</v>
@@ -35847,7 +35847,7 @@
     </row>
     <row r="4437" spans="1:2">
       <c r="A4437">
-        <v>0.1106747130536485</v>
+        <v>0.1106747130536484</v>
       </c>
       <c r="B4437">
         <v>-0.137130326846409</v>
@@ -35959,7 +35959,7 @@
     </row>
     <row r="4451" spans="1:2">
       <c r="A4451">
-        <v>0.1028329366694095</v>
+        <v>0.1028329366694096</v>
       </c>
       <c r="B4451">
         <v>-0.1009635267637146</v>
@@ -36015,7 +36015,7 @@
     </row>
     <row r="4458" spans="1:2">
       <c r="A4458">
-        <v>0.08723279267845491</v>
+        <v>0.08723279267845492</v>
       </c>
       <c r="B4458">
         <v>-0.1176625986340589</v>
@@ -36335,7 +36335,7 @@
     </row>
     <row r="4498" spans="1:2">
       <c r="A4498">
-        <v>0.04337865645848802</v>
+        <v>0.04337865645848801</v>
       </c>
       <c r="B4498">
         <v>-0.06641775868712507</v>
